--- a/DesignDocs/VariableData/TubeStyle.xlsx
+++ b/DesignDocs/VariableData/TubeStyle.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="19226"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="19330"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\2D-Side-View-Roguelike\DesignDocs\VariableData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{C5ECEE5F-133F-44BB-8E24-5AA4A7F4F6C5}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DF8D6456-07BC-40F9-843C-4680E704D429}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11190" xr2:uid="{366F9E45-B0F8-4055-8B5F-D566B711F9AF}"/>
   </bookViews>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="132" uniqueCount="65">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="148" uniqueCount="70">
   <si>
     <t>cid</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -283,6 +283,26 @@
   </si>
   <si>
     <t>holdmotion</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>cleaner_style</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>cleaner_R_style</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>클리너 스타일</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>깔끔한 클리너 스타일</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Weakness</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -290,7 +310,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -306,13 +326,35 @@
       <charset val="129"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="맑은 고딕"/>
+      <family val="2"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF7030A0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -329,8 +371,14 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -647,10 +695,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8DF9D8F3-E0FC-4360-AD1B-AF1E960ABF29}">
-  <dimension ref="A1:N17"/>
+  <dimension ref="A1:N19"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="K7" sqref="K7"/>
+      <selection activeCell="A20" sqref="A20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1188,6 +1236,72 @@
         <v>15</v>
       </c>
     </row>
+    <row r="18" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A18">
+        <v>5119</v>
+      </c>
+      <c r="B18" t="s">
+        <v>65</v>
+      </c>
+      <c r="C18" t="s">
+        <v>67</v>
+      </c>
+      <c r="D18" t="s">
+        <v>13</v>
+      </c>
+      <c r="E18" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="F18" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="G18" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="H18" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="I18" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="J18" s="2"/>
+      <c r="K18" s="2">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A19">
+        <v>5120</v>
+      </c>
+      <c r="B19" t="s">
+        <v>66</v>
+      </c>
+      <c r="C19" t="s">
+        <v>68</v>
+      </c>
+      <c r="D19" t="s">
+        <v>13</v>
+      </c>
+      <c r="E19" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="F19" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="G19" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="H19" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="I19" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="J19" s="2"/>
+      <c r="K19" s="2">
+        <v>15</v>
+      </c>
+    </row>
   </sheetData>
   <autoFilter ref="A1:N1" xr:uid="{AE5E8616-4AFC-4B19-8500-ABE8F373A9D0}"/>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/DesignDocs/VariableData/TubeStyle.xlsx
+++ b/DesignDocs/VariableData/TubeStyle.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\2D-Side-View-Roguelike\DesignDocs\VariableData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DF8D6456-07BC-40F9-843C-4680E704D429}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{19FAF636-8A8D-476B-AA23-B0D3ACC3AB52}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11190" xr2:uid="{366F9E45-B0F8-4055-8B5F-D566B711F9AF}"/>
   </bookViews>
@@ -697,8 +697,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8DF9D8F3-E0FC-4360-AD1B-AF1E960ABF29}">
   <dimension ref="A1:N19"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="A20" sqref="A20"/>
+    <sheetView tabSelected="1" topLeftCell="A13" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="B17" sqref="B17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1078,7 +1078,7 @@
     </row>
     <row r="13" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A13">
-        <v>5103</v>
+        <v>5101</v>
       </c>
       <c r="B13" t="s">
         <v>45</v>
@@ -1110,7 +1110,7 @@
     </row>
     <row r="14" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A14">
-        <v>5106</v>
+        <v>5102</v>
       </c>
       <c r="B14" t="s">
         <v>49</v>
@@ -1142,7 +1142,7 @@
     </row>
     <row r="15" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A15">
-        <v>5109</v>
+        <v>5103</v>
       </c>
       <c r="B15" t="s">
         <v>52</v>
@@ -1174,7 +1174,7 @@
     </row>
     <row r="16" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A16">
-        <v>5112</v>
+        <v>5104</v>
       </c>
       <c r="B16" t="s">
         <v>55</v>
@@ -1206,7 +1206,7 @@
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A17">
-        <v>5115</v>
+        <v>5105</v>
       </c>
       <c r="B17" t="s">
         <v>58</v>
@@ -1238,7 +1238,7 @@
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A18">
-        <v>5119</v>
+        <v>5106</v>
       </c>
       <c r="B18" t="s">
         <v>65</v>
@@ -1271,7 +1271,7 @@
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A19">
-        <v>5120</v>
+        <v>5107</v>
       </c>
       <c r="B19" t="s">
         <v>66</v>

--- a/DesignDocs/VariableData/TubeStyle.xlsx
+++ b/DesignDocs/VariableData/TubeStyle.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="19330"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\2D-Side-View-Roguelike\DesignDocs\VariableData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{19FAF636-8A8D-476B-AA23-B0D3ACC3AB52}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11190" xr2:uid="{366F9E45-B0F8-4055-8B5F-D566B711F9AF}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11196"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -18,7 +17,7 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$N$1</definedName>
   </definedNames>
-  <calcPr calcId="179017"/>
+  <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -28,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="148" uniqueCount="70">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="156" uniqueCount="77">
   <si>
     <t>cid</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -58,9 +57,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>RoyalLab itValue</t>
-  </si>
-  <si>
     <t>attackType</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -294,22 +290,54 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>클리너 스타일</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>깔끔한 클리너 스타일</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Weakness</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>mingkies_style</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>밍키즈 스타일</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>style</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>WalkersWorkshop</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>hitValue</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>mingkies_skill</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{(0.5)}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>range</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>청소부 스타일</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>불량한 청소부 스타일</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -694,23 +722,29 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8DF9D8F3-E0FC-4360-AD1B-AF1E960ABF29}">
-  <dimension ref="A1:N19"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:N20"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="B17" sqref="B17"/>
+    <sheetView tabSelected="1" topLeftCell="A7" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C20" sqref="C20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="2" max="2" width="23.75" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="16.25" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="9.75" customWidth="1"/>
-    <col min="6" max="6" width="17.75" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="13.375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="23.69921875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="19.59765625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.69921875" customWidth="1"/>
+    <col min="6" max="6" width="17.69921875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="13.3984375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="16.5" customWidth="1"/>
+    <col min="9" max="9" width="16" customWidth="1"/>
+    <col min="10" max="10" width="14.3984375" customWidth="1"/>
+    <col min="11" max="11" width="11.3984375" customWidth="1"/>
+    <col min="12" max="12" width="10.19921875" customWidth="1"/>
+    <col min="13" max="13" width="9.59765625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -733,577 +767,609 @@
         <v>6</v>
       </c>
       <c r="H1" t="s">
+        <v>71</v>
+      </c>
+      <c r="I1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" t="s">
+      <c r="J1" t="s">
         <v>8</v>
       </c>
-      <c r="J1" t="s">
+      <c r="K1" t="s">
         <v>9</v>
       </c>
-      <c r="K1" t="s">
-        <v>10</v>
-      </c>
       <c r="L1" t="s">
+        <v>61</v>
+      </c>
+      <c r="M1" t="s">
         <v>62</v>
       </c>
-      <c r="M1" t="s">
+      <c r="N1" t="s">
         <v>63</v>
       </c>
-      <c r="N1" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.3">
+    </row>
+    <row r="2" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A2">
         <v>1100</v>
       </c>
       <c r="B2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C2" t="s">
         <v>11</v>
       </c>
-      <c r="C2" t="s">
-        <v>12</v>
-      </c>
       <c r="D2" t="s">
+        <v>12</v>
+      </c>
+      <c r="E2" t="s">
         <v>13</v>
       </c>
-      <c r="E2" t="s">
+      <c r="F2" t="s">
         <v>14</v>
       </c>
-      <c r="F2" t="s">
+      <c r="H2" t="s">
         <v>15</v>
       </c>
-      <c r="H2" t="s">
+      <c r="I2" t="s">
         <v>16</v>
-      </c>
-      <c r="I2" t="s">
-        <v>17</v>
       </c>
       <c r="K2">
         <v>10</v>
       </c>
     </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A3">
         <v>1101</v>
       </c>
       <c r="B3" t="s">
+        <v>17</v>
+      </c>
+      <c r="C3" t="s">
         <v>18</v>
       </c>
-      <c r="C3" t="s">
+      <c r="D3" t="s">
+        <v>12</v>
+      </c>
+      <c r="E3" t="s">
+        <v>13</v>
+      </c>
+      <c r="F3" t="s">
         <v>19</v>
       </c>
-      <c r="D3" t="s">
-        <v>13</v>
-      </c>
-      <c r="E3" t="s">
-        <v>14</v>
-      </c>
-      <c r="F3" t="s">
+      <c r="H3" t="s">
+        <v>15</v>
+      </c>
+      <c r="I3" t="s">
         <v>20</v>
-      </c>
-      <c r="H3" t="s">
-        <v>16</v>
-      </c>
-      <c r="I3" t="s">
-        <v>21</v>
       </c>
       <c r="K3">
         <v>10</v>
       </c>
     </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A4">
         <v>1102</v>
       </c>
       <c r="B4" t="s">
+        <v>21</v>
+      </c>
+      <c r="C4" t="s">
         <v>22</v>
       </c>
-      <c r="C4" t="s">
+      <c r="D4" t="s">
+        <v>12</v>
+      </c>
+      <c r="E4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F4" t="s">
+        <v>14</v>
+      </c>
+      <c r="H4" t="s">
         <v>23</v>
       </c>
-      <c r="D4" t="s">
-        <v>13</v>
-      </c>
-      <c r="E4" t="s">
-        <v>14</v>
-      </c>
-      <c r="F4" t="s">
-        <v>15</v>
-      </c>
-      <c r="H4" t="s">
+      <c r="I4" t="s">
         <v>24</v>
-      </c>
-      <c r="I4" t="s">
-        <v>25</v>
       </c>
       <c r="K4">
         <v>20</v>
       </c>
     </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A5">
         <v>1103</v>
       </c>
       <c r="B5" t="s">
+        <v>25</v>
+      </c>
+      <c r="C5" t="s">
         <v>26</v>
       </c>
-      <c r="C5" t="s">
+      <c r="D5" t="s">
+        <v>12</v>
+      </c>
+      <c r="E5" t="s">
         <v>27</v>
       </c>
-      <c r="D5" t="s">
-        <v>13</v>
-      </c>
-      <c r="E5" t="s">
+      <c r="F5" t="s">
+        <v>19</v>
+      </c>
+      <c r="H5" t="s">
         <v>28</v>
       </c>
-      <c r="F5" t="s">
-        <v>20</v>
-      </c>
-      <c r="H5" t="s">
-        <v>29</v>
-      </c>
       <c r="I5" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="K5">
         <v>40</v>
       </c>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A6">
         <v>1104</v>
       </c>
       <c r="B6" t="s">
+        <v>29</v>
+      </c>
+      <c r="C6" t="s">
         <v>30</v>
       </c>
-      <c r="C6" t="s">
+      <c r="D6" t="s">
+        <v>12</v>
+      </c>
+      <c r="E6" t="s">
+        <v>13</v>
+      </c>
+      <c r="F6" t="s">
         <v>31</v>
       </c>
-      <c r="D6" t="s">
-        <v>13</v>
-      </c>
-      <c r="E6" t="s">
-        <v>14</v>
-      </c>
-      <c r="F6" t="s">
+      <c r="H6" t="s">
         <v>32</v>
       </c>
-      <c r="H6" t="s">
-        <v>33</v>
-      </c>
       <c r="I6" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="K6">
         <v>15</v>
       </c>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A7">
         <v>1105</v>
       </c>
       <c r="B7" t="s">
+        <v>33</v>
+      </c>
+      <c r="C7" t="s">
         <v>34</v>
       </c>
-      <c r="C7" t="s">
+      <c r="D7" t="s">
+        <v>12</v>
+      </c>
+      <c r="E7" t="s">
+        <v>13</v>
+      </c>
+      <c r="F7" t="s">
+        <v>31</v>
+      </c>
+      <c r="H7" t="s">
         <v>35</v>
       </c>
-      <c r="D7" t="s">
-        <v>13</v>
-      </c>
-      <c r="E7" t="s">
-        <v>14</v>
-      </c>
-      <c r="F7" t="s">
-        <v>32</v>
-      </c>
-      <c r="H7" t="s">
-        <v>36</v>
-      </c>
       <c r="I7" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="K7">
         <v>20</v>
       </c>
     </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A8">
         <v>1106</v>
       </c>
       <c r="B8" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C8" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D8" t="s">
+        <v>12</v>
+      </c>
+      <c r="E8" t="s">
         <v>13</v>
       </c>
-      <c r="E8" t="s">
-        <v>14</v>
-      </c>
       <c r="F8" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="H8" t="s">
+        <v>15</v>
+      </c>
+      <c r="I8" t="s">
         <v>16</v>
-      </c>
-      <c r="I8" t="s">
-        <v>17</v>
       </c>
       <c r="K8">
         <v>10</v>
       </c>
     </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A9">
         <v>1107</v>
       </c>
       <c r="B9" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C9" t="s">
+        <v>18</v>
+      </c>
+      <c r="D9" t="s">
+        <v>12</v>
+      </c>
+      <c r="E9" t="s">
+        <v>13</v>
+      </c>
+      <c r="F9" t="s">
         <v>19</v>
       </c>
-      <c r="D9" t="s">
-        <v>13</v>
-      </c>
-      <c r="E9" t="s">
-        <v>14</v>
-      </c>
-      <c r="F9" t="s">
+      <c r="H9" t="s">
+        <v>15</v>
+      </c>
+      <c r="I9" t="s">
         <v>20</v>
-      </c>
-      <c r="H9" t="s">
-        <v>16</v>
-      </c>
-      <c r="I9" t="s">
-        <v>21</v>
       </c>
       <c r="K9">
         <v>10</v>
       </c>
     </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A10">
         <v>1108</v>
       </c>
       <c r="B10" t="s">
+        <v>38</v>
+      </c>
+      <c r="C10" t="s">
+        <v>22</v>
+      </c>
+      <c r="D10" t="s">
+        <v>12</v>
+      </c>
+      <c r="E10" t="s">
+        <v>13</v>
+      </c>
+      <c r="F10" t="s">
         <v>39</v>
       </c>
-      <c r="C10" t="s">
+      <c r="H10" t="s">
         <v>23</v>
       </c>
-      <c r="D10" t="s">
-        <v>13</v>
-      </c>
-      <c r="E10" t="s">
-        <v>14</v>
-      </c>
-      <c r="F10" t="s">
-        <v>40</v>
-      </c>
-      <c r="H10" t="s">
+      <c r="I10" t="s">
         <v>24</v>
-      </c>
-      <c r="I10" t="s">
-        <v>25</v>
       </c>
       <c r="K10">
         <v>20</v>
       </c>
     </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A11">
         <v>1109</v>
       </c>
       <c r="B11" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C11" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D11" t="s">
+        <v>12</v>
+      </c>
+      <c r="E11" t="s">
         <v>13</v>
       </c>
-      <c r="E11" t="s">
+      <c r="F11" t="s">
         <v>14</v>
       </c>
-      <c r="F11" t="s">
-        <v>15</v>
-      </c>
       <c r="H11" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="I11" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="K11">
         <v>15</v>
       </c>
     </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A12">
         <v>5100</v>
       </c>
       <c r="B12" t="s">
+        <v>41</v>
+      </c>
+      <c r="C12" t="s">
         <v>42</v>
       </c>
-      <c r="C12" t="s">
+      <c r="D12" t="s">
+        <v>12</v>
+      </c>
+      <c r="E12" t="s">
+        <v>13</v>
+      </c>
+      <c r="F12" t="s">
+        <v>14</v>
+      </c>
+      <c r="G12" t="s">
         <v>43</v>
       </c>
-      <c r="D12" t="s">
-        <v>13</v>
-      </c>
-      <c r="E12" t="s">
-        <v>14</v>
-      </c>
-      <c r="F12" t="s">
-        <v>15</v>
-      </c>
-      <c r="G12" t="s">
-        <v>44</v>
-      </c>
       <c r="H12" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="I12" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="K12">
         <v>10</v>
       </c>
     </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A13">
         <v>5101</v>
       </c>
       <c r="B13" t="s">
+        <v>44</v>
+      </c>
+      <c r="C13" t="s">
         <v>45</v>
       </c>
-      <c r="C13" t="s">
+      <c r="D13" t="s">
+        <v>12</v>
+      </c>
+      <c r="E13" t="s">
+        <v>13</v>
+      </c>
+      <c r="F13" t="s">
+        <v>31</v>
+      </c>
+      <c r="G13" t="s">
         <v>46</v>
       </c>
-      <c r="D13" t="s">
-        <v>13</v>
-      </c>
-      <c r="E13" t="s">
-        <v>14</v>
-      </c>
-      <c r="F13" t="s">
-        <v>32</v>
-      </c>
-      <c r="G13" t="s">
+      <c r="H13" t="s">
         <v>47</v>
       </c>
-      <c r="H13" t="s">
-        <v>48</v>
-      </c>
       <c r="I13" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="K13">
         <v>5</v>
       </c>
     </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A14">
         <v>5102</v>
       </c>
       <c r="B14" t="s">
+        <v>48</v>
+      </c>
+      <c r="C14" t="s">
         <v>49</v>
       </c>
-      <c r="C14" t="s">
+      <c r="D14" t="s">
+        <v>12</v>
+      </c>
+      <c r="E14" t="s">
+        <v>13</v>
+      </c>
+      <c r="F14" t="s">
+        <v>14</v>
+      </c>
+      <c r="G14" t="s">
         <v>50</v>
       </c>
-      <c r="D14" t="s">
-        <v>13</v>
-      </c>
-      <c r="E14" t="s">
-        <v>14</v>
-      </c>
-      <c r="F14" t="s">
-        <v>15</v>
-      </c>
-      <c r="G14" t="s">
-        <v>51</v>
-      </c>
       <c r="H14" t="s">
+        <v>23</v>
+      </c>
+      <c r="I14" t="s">
         <v>24</v>
-      </c>
-      <c r="I14" t="s">
-        <v>25</v>
       </c>
       <c r="K14">
         <v>10</v>
       </c>
     </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A15">
         <v>5103</v>
       </c>
       <c r="B15" t="s">
+        <v>51</v>
+      </c>
+      <c r="C15" t="s">
         <v>52</v>
       </c>
-      <c r="C15" t="s">
+      <c r="D15" t="s">
+        <v>12</v>
+      </c>
+      <c r="E15" t="s">
+        <v>13</v>
+      </c>
+      <c r="F15" t="s">
+        <v>19</v>
+      </c>
+      <c r="G15" t="s">
         <v>53</v>
       </c>
-      <c r="D15" t="s">
-        <v>13</v>
-      </c>
-      <c r="E15" t="s">
-        <v>14</v>
-      </c>
-      <c r="F15" t="s">
+      <c r="H15" t="s">
+        <v>15</v>
+      </c>
+      <c r="I15" t="s">
         <v>20</v>
-      </c>
-      <c r="G15" t="s">
-        <v>54</v>
-      </c>
-      <c r="H15" t="s">
-        <v>16</v>
-      </c>
-      <c r="I15" t="s">
-        <v>21</v>
       </c>
       <c r="K15">
         <v>5</v>
       </c>
     </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A16">
         <v>5104</v>
       </c>
       <c r="B16" t="s">
+        <v>54</v>
+      </c>
+      <c r="C16" t="s">
         <v>55</v>
       </c>
-      <c r="C16" t="s">
+      <c r="D16" t="s">
+        <v>12</v>
+      </c>
+      <c r="E16" t="s">
+        <v>27</v>
+      </c>
+      <c r="F16" t="s">
+        <v>14</v>
+      </c>
+      <c r="G16" t="s">
         <v>56</v>
       </c>
-      <c r="D16" t="s">
-        <v>13</v>
-      </c>
-      <c r="E16" t="s">
-        <v>28</v>
-      </c>
-      <c r="F16" t="s">
-        <v>15</v>
-      </c>
-      <c r="G16" t="s">
-        <v>57</v>
-      </c>
       <c r="H16" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="I16" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="K16">
         <v>50</v>
       </c>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A17">
         <v>5105</v>
       </c>
       <c r="B17" t="s">
+        <v>57</v>
+      </c>
+      <c r="C17" t="s">
         <v>58</v>
       </c>
-      <c r="C17" t="s">
+      <c r="D17" t="s">
+        <v>12</v>
+      </c>
+      <c r="E17" t="s">
+        <v>27</v>
+      </c>
+      <c r="F17" t="s">
+        <v>31</v>
+      </c>
+      <c r="G17" t="s">
         <v>59</v>
       </c>
-      <c r="D17" t="s">
-        <v>13</v>
-      </c>
-      <c r="E17" t="s">
-        <v>28</v>
-      </c>
-      <c r="F17" t="s">
-        <v>32</v>
-      </c>
-      <c r="G17" t="s">
+      <c r="H17" t="s">
         <v>60</v>
       </c>
-      <c r="H17" t="s">
-        <v>61</v>
-      </c>
       <c r="I17" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="K17">
         <v>15</v>
       </c>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A18">
         <v>5106</v>
       </c>
       <c r="B18" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C18" t="s">
-        <v>67</v>
+        <v>75</v>
       </c>
       <c r="D18" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="F18" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G18" s="2" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="H18" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="I18" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="J18" s="2"/>
       <c r="K18" s="2">
         <v>10</v>
       </c>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A19">
         <v>5107</v>
       </c>
       <c r="B19" t="s">
+        <v>65</v>
+      </c>
+      <c r="C19" t="s">
+        <v>76</v>
+      </c>
+      <c r="D19" t="s">
+        <v>12</v>
+      </c>
+      <c r="E19" s="2" t="s">
         <v>66</v>
       </c>
-      <c r="C19" t="s">
-        <v>68</v>
-      </c>
-      <c r="D19" t="s">
-        <v>13</v>
-      </c>
-      <c r="E19" s="2" t="s">
-        <v>69</v>
-      </c>
       <c r="F19" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G19" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="H19" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="H19" s="2" t="s">
-        <v>61</v>
-      </c>
       <c r="I19" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="J19" s="2"/>
       <c r="K19" s="2">
-        <v>15</v>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A20">
+        <v>5108</v>
+      </c>
+      <c r="B20" t="s">
+        <v>67</v>
+      </c>
+      <c r="C20" t="s">
+        <v>68</v>
+      </c>
+      <c r="D20" t="s">
+        <v>69</v>
+      </c>
+      <c r="E20" t="s">
+        <v>13</v>
+      </c>
+      <c r="F20" t="s">
+        <v>70</v>
+      </c>
+      <c r="G20" t="s">
+        <v>72</v>
+      </c>
+      <c r="H20" t="s">
+        <v>73</v>
+      </c>
+      <c r="I20" t="s">
+        <v>74</v>
+      </c>
+      <c r="K20">
+        <v>10</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:N1" xr:uid="{AE5E8616-4AFC-4B19-8500-ABE8F373A9D0}"/>
+  <autoFilter ref="A1:N1"/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/DesignDocs/VariableData/TubeStyle.xlsx
+++ b/DesignDocs/VariableData/TubeStyle.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="19330"/>
+  <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\2D-Side-View-Roguelike\DesignDocs\VariableData\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{70A612E5-1278-49BD-BE12-3EFF943848AD}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11196"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11190" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -27,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="156" uniqueCount="77">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="345" uniqueCount="131">
   <si>
     <t>cid</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -332,13 +333,176 @@
   <si>
     <t>불량한 청소부 스타일</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>고양이1 스타일 00</t>
+  </si>
+  <si>
+    <t>고양이1 스타일 01</t>
+  </si>
+  <si>
+    <t>고양이2 스타일 00</t>
+  </si>
+  <si>
+    <t>고양이2 스타일 01</t>
+  </si>
+  <si>
+    <t>핏불 스타일 00</t>
+  </si>
+  <si>
+    <t>핏불 스타일 01</t>
+  </si>
+  <si>
+    <t>핏불 스타일 02</t>
+  </si>
+  <si>
+    <t>부엉이 스타일 00</t>
+  </si>
+  <si>
+    <t>부엉이 스타일 01</t>
+  </si>
+  <si>
+    <t>까마귀 스타일 00</t>
+  </si>
+  <si>
+    <t>까마귀 스타일 01</t>
+  </si>
+  <si>
+    <t>도롱뇽 스타일 00</t>
+  </si>
+  <si>
+    <t>카르바노그 스타일 00</t>
+  </si>
+  <si>
+    <t>카르바노그 스타일 01</t>
+  </si>
+  <si>
+    <t>카르바노그 스타일 02</t>
+  </si>
+  <si>
+    <t>카르바노그 스타일 03</t>
+  </si>
+  <si>
+    <t>태그 스타일 00</t>
+  </si>
+  <si>
+    <t>태그 스타일 01</t>
+  </si>
+  <si>
+    <t>태그 스타일 02</t>
+  </si>
+  <si>
+    <t>팀 스타일 00</t>
+  </si>
+  <si>
+    <t>팀 스타일 01</t>
+  </si>
+  <si>
+    <t>팀 스타일 02</t>
+  </si>
+  <si>
+    <t>팀 스타일 03</t>
+  </si>
+  <si>
+    <t>13_pitbull_00_style</t>
+  </si>
+  <si>
+    <t>13_owl_00_style</t>
+  </si>
+  <si>
+    <t>13_crow_00_style</t>
+  </si>
+  <si>
+    <t>13_salamander_00_style</t>
+  </si>
+  <si>
+    <t>13_carbannog_00_style</t>
+  </si>
+  <si>
+    <t>13_tag_00_style</t>
+  </si>
+  <si>
+    <t>13_tim_00_style</t>
+  </si>
+  <si>
+    <t>13_madbuddy_00_style</t>
+  </si>
+  <si>
+    <t>13_cat_01_style_00_style</t>
+  </si>
+  <si>
+    <t>13_cat_01_style_01_style</t>
+  </si>
+  <si>
+    <t>13_pitbull_01_style</t>
+  </si>
+  <si>
+    <t>13_owl_01_style</t>
+  </si>
+  <si>
+    <t>13_crow_01_style</t>
+  </si>
+  <si>
+    <t>13_carbannog_01_style</t>
+  </si>
+  <si>
+    <t>13_tag_01_style</t>
+  </si>
+  <si>
+    <t>13_tim_01_style</t>
+  </si>
+  <si>
+    <t>13_madbuddy_01_style</t>
+  </si>
+  <si>
+    <t>13_cat_02_style_00_style</t>
+  </si>
+  <si>
+    <t>13_pitbull_02_style</t>
+  </si>
+  <si>
+    <t>13_carbannog_02_style</t>
+  </si>
+  <si>
+    <t>13_tag_02_style</t>
+  </si>
+  <si>
+    <t>13_tim_02_style</t>
+  </si>
+  <si>
+    <t>13_madbuddy_02_style</t>
+  </si>
+  <si>
+    <t>13_carbannog_03_style</t>
+  </si>
+  <si>
+    <t>13_tim_03_style</t>
+  </si>
+  <si>
+    <t>13_madbuddy_03_style</t>
+  </si>
+  <si>
+    <t>melee</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>매드버디 스타일 00</t>
+  </si>
+  <si>
+    <t>매드버디 스타일 01</t>
+  </si>
+  <si>
+    <t>매드버디 스타일 02</t>
+  </si>
+  <si>
+    <t>매드버디 스타일 03</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="4" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -370,8 +534,16 @@
       <charset val="129"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -381,6 +553,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FF7030A0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC000"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -399,7 +577,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -407,6 +585,12 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -722,29 +906,29 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:N20"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:N49"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C20" sqref="C20"/>
+    <sheetView tabSelected="1" topLeftCell="A21" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F26" sqref="F26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="23.69921875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="19.59765625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="9.69921875" customWidth="1"/>
-    <col min="6" max="6" width="17.69921875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="13.3984375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="23.75" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="19.625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.75" customWidth="1"/>
+    <col min="6" max="6" width="17.75" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="13.375" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="16.5" customWidth="1"/>
     <col min="9" max="9" width="16" customWidth="1"/>
-    <col min="10" max="10" width="14.3984375" customWidth="1"/>
-    <col min="11" max="11" width="11.3984375" customWidth="1"/>
-    <col min="12" max="12" width="10.19921875" customWidth="1"/>
-    <col min="13" max="13" width="9.59765625" customWidth="1"/>
+    <col min="10" max="10" width="14.375" customWidth="1"/>
+    <col min="11" max="11" width="11.375" customWidth="1"/>
+    <col min="12" max="12" width="10.25" customWidth="1"/>
+    <col min="13" max="13" width="9.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -788,7 +972,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>1100</v>
       </c>
@@ -817,7 +1001,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>1101</v>
       </c>
@@ -846,7 +1030,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>1102</v>
       </c>
@@ -875,7 +1059,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>1103</v>
       </c>
@@ -904,7 +1088,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>1104</v>
       </c>
@@ -933,7 +1117,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>1105</v>
       </c>
@@ -962,7 +1146,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>1106</v>
       </c>
@@ -991,7 +1175,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>1107</v>
       </c>
@@ -1020,7 +1204,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>1108</v>
       </c>
@@ -1049,7 +1233,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>1109</v>
       </c>
@@ -1078,7 +1262,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>5100</v>
       </c>
@@ -1110,7 +1294,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>5101</v>
       </c>
@@ -1142,7 +1326,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>5102</v>
       </c>
@@ -1174,7 +1358,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>5103</v>
       </c>
@@ -1206,7 +1390,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>5104</v>
       </c>
@@ -1238,7 +1422,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A17">
         <v>5105</v>
       </c>
@@ -1270,7 +1454,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A18">
         <v>5106</v>
       </c>
@@ -1303,7 +1487,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A19">
         <v>5107</v>
       </c>
@@ -1336,7 +1520,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A20">
         <v>5108</v>
       </c>
@@ -1368,8 +1552,797 @@
         <v>10</v>
       </c>
     </row>
+    <row r="21" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A21" s="3">
+        <v>5109</v>
+      </c>
+      <c r="B21" s="3" t="s">
+        <v>108</v>
+      </c>
+      <c r="C21" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="D21" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="E21" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="F21" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="H21" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="I21" s="3" t="s">
+        <v>126</v>
+      </c>
+      <c r="K21" s="3">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A22" s="3">
+        <v>5110</v>
+      </c>
+      <c r="B22" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="C22" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="D22" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="E22" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="F22" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="H22" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="I22" s="3" t="s">
+        <v>126</v>
+      </c>
+      <c r="K22" s="3">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A23" s="3">
+        <v>5111</v>
+      </c>
+      <c r="B23" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="C23" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="D23" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="E23" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="F23" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="H23" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="I23" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="K23" s="3">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A24" s="3">
+        <v>5112</v>
+      </c>
+      <c r="B24" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="C24" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="D24" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="E24" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="F24" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="H24" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="I24" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="K24" s="3">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A25" s="3">
+        <v>5113</v>
+      </c>
+      <c r="B25" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="C25" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="D25" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="E25" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="F25" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="H25" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="I25" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="K25" s="3">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A26" s="3">
+        <v>5114</v>
+      </c>
+      <c r="B26" s="3" t="s">
+        <v>110</v>
+      </c>
+      <c r="C26" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="D26" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="E26" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="F26" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="H26" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="I26" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="K26" s="3">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="27" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A27" s="3">
+        <v>5115</v>
+      </c>
+      <c r="B27" s="3" t="s">
+        <v>118</v>
+      </c>
+      <c r="C27" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="D27" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="E27" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="F27" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="H27" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="I27" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="K27" s="3">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="28" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A28" s="3">
+        <v>5116</v>
+      </c>
+      <c r="B28" s="3" t="s">
+        <v>101</v>
+      </c>
+      <c r="C28" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="D28" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="E28" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="F28" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="H28" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="I28" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="K28" s="3">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="29" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A29" s="3">
+        <v>5117</v>
+      </c>
+      <c r="B29" s="3" t="s">
+        <v>111</v>
+      </c>
+      <c r="C29" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="D29" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="E29" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="F29" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="H29" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="I29" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="K29" s="3">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="30" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A30" s="3">
+        <v>5118</v>
+      </c>
+      <c r="B30" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="C30" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="D30" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="E30" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="F30" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="H30" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="I30" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="K30" s="3">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="31" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A31" s="3">
+        <v>5119</v>
+      </c>
+      <c r="B31" s="3" t="s">
+        <v>112</v>
+      </c>
+      <c r="C31" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="D31" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="E31" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="F31" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="H31" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="I31" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="K31" s="3">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="32" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A32" s="3">
+        <v>5120</v>
+      </c>
+      <c r="B32" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="C32" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="D32" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="E32" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="F32" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="H32" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="I32" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="K32" s="3">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="33" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A33" s="3">
+        <v>5121</v>
+      </c>
+      <c r="B33" s="3" t="s">
+        <v>104</v>
+      </c>
+      <c r="C33" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="D33" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="E33" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="F33" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="H33" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="I33" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="K33" s="3">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="34" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A34" s="3">
+        <v>5122</v>
+      </c>
+      <c r="B34" s="3" t="s">
+        <v>113</v>
+      </c>
+      <c r="C34" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="D34" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="E34" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="F34" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="H34" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="I34" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="K34" s="3">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="35" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A35" s="3">
+        <v>5123</v>
+      </c>
+      <c r="B35" s="3" t="s">
+        <v>119</v>
+      </c>
+      <c r="C35" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="D35" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="E35" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="F35" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="H35" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="I35" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="K35" s="3">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="36" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A36" s="3">
+        <v>5124</v>
+      </c>
+      <c r="B36" s="3" t="s">
+        <v>123</v>
+      </c>
+      <c r="C36" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="D36" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="E36" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="F36" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="H36" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="I36" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="K36" s="3">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="37" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A37" s="3">
+        <v>5125</v>
+      </c>
+      <c r="B37" s="3" t="s">
+        <v>105</v>
+      </c>
+      <c r="C37" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="D37" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="E37" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="F37" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="H37" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="I37" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="K37" s="3">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="38" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A38" s="3">
+        <v>5126</v>
+      </c>
+      <c r="B38" s="3" t="s">
+        <v>114</v>
+      </c>
+      <c r="C38" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="D38" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="E38" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="F38" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="H38" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="I38" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="K38" s="3">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="39" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A39" s="3">
+        <v>5127</v>
+      </c>
+      <c r="B39" s="3" t="s">
+        <v>120</v>
+      </c>
+      <c r="C39" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="D39" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="E39" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="F39" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="H39" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="I39" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="K39" s="3">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="40" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A40" s="3">
+        <v>5128</v>
+      </c>
+      <c r="B40" s="3" t="s">
+        <v>106</v>
+      </c>
+      <c r="C40" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="D40" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="E40" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="F40" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="H40" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="I40" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="K40" s="3">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="41" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A41" s="3">
+        <v>5129</v>
+      </c>
+      <c r="B41" s="3" t="s">
+        <v>115</v>
+      </c>
+      <c r="C41" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="D41" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="E41" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="F41" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="H41" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="I41" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="K41" s="3">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="42" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A42" s="3">
+        <v>5130</v>
+      </c>
+      <c r="B42" s="3" t="s">
+        <v>121</v>
+      </c>
+      <c r="C42" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="D42" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="E42" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="F42" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="H42" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="I42" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="K42" s="3">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="43" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A43" s="3">
+        <v>5131</v>
+      </c>
+      <c r="B43" s="3" t="s">
+        <v>124</v>
+      </c>
+      <c r="C43" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="D43" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="E43" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="F43" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="H43" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="I43" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="K43" s="3">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="44" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A44" s="3">
+        <v>5132</v>
+      </c>
+      <c r="B44" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="C44" s="3" t="s">
+        <v>127</v>
+      </c>
+      <c r="D44" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="E44" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="F44" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="H44" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="I44" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="K44" s="3">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="45" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A45" s="3">
+        <v>5133</v>
+      </c>
+      <c r="B45" s="3" t="s">
+        <v>116</v>
+      </c>
+      <c r="C45" s="3" t="s">
+        <v>128</v>
+      </c>
+      <c r="D45" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="E45" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="F45" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="H45" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="I45" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="K45" s="3">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="46" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A46" s="3">
+        <v>5134</v>
+      </c>
+      <c r="B46" s="3" t="s">
+        <v>122</v>
+      </c>
+      <c r="C46" s="3" t="s">
+        <v>129</v>
+      </c>
+      <c r="D46" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="E46" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="F46" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="H46" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="I46" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="K46" s="3">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="47" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A47" s="3">
+        <v>5135</v>
+      </c>
+      <c r="B47" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="C47" s="3" t="s">
+        <v>130</v>
+      </c>
+      <c r="D47" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="E47" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="F47" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="H47" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="I47" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="K47" s="3">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="48" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="F48" s="2"/>
+    </row>
+    <row r="49" spans="6:6" x14ac:dyDescent="0.3">
+      <c r="F49" s="2"/>
+    </row>
   </sheetData>
-  <autoFilter ref="A1:N1"/>
+  <autoFilter ref="A1:N1" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/DesignDocs/VariableData/TubeStyle.xlsx
+++ b/DesignDocs/VariableData/TubeStyle.xlsx
@@ -1,22 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="19330"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="19126"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\2D-Side-View-Roguelike\DesignDocs\VariableData\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\OptIn\Documents\2D-Side-View-Roguelike\DesignDocs\VariableData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{70A612E5-1278-49BD-BE12-3EFF943848AD}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{1FD1BFAC-C325-4E19-B1D2-AC3B82D058AB}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11190" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11196" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$N$1</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$N$47</definedName>
   </definedNames>
   <calcPr calcId="152511"/>
   <extLst>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="345" uniqueCount="131">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="300" uniqueCount="124">
   <si>
     <t>cid</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -89,10 +89,6 @@
     <t>WalkersWorkshop</t>
   </si>
   <si>
-    <t>{(0.3)}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>melee</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -120,10 +116,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>{(0.5)}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>bounce</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -140,10 +132,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>{(0,7)}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Style_HandBlade_We_00</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -155,10 +143,6 @@
     <t>SmithsSmithy</t>
   </si>
   <si>
-    <t>{(0.6)}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Style_We_Chain_00</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -167,10 +151,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>{(0.4)}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Style_Melee_We_01</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -215,10 +195,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>{(0.7)}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>jake_B_style</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -267,10 +243,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>{(1.0)}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>combo</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -311,18 +283,10 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>hitValue</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>mingkies_skill</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>{(0.5)}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>range</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -496,6 +460,14 @@
   </si>
   <si>
     <t>매드버디 스타일 03</t>
+  </si>
+  <si>
+    <t>motionDelay</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>range</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -907,28 +879,28 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:N49"/>
+  <dimension ref="A1:O49"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A21" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F26" sqref="F26"/>
+    <sheetView tabSelected="1" topLeftCell="C1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="J7" sqref="J7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="2" max="2" width="23.75" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="19.625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="9.75" customWidth="1"/>
-    <col min="6" max="6" width="17.75" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="13.375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="23.69921875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="19.59765625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.69921875" customWidth="1"/>
+    <col min="6" max="6" width="17.69921875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="13.3984375" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="16.5" customWidth="1"/>
-    <col min="9" max="9" width="16" customWidth="1"/>
-    <col min="10" max="10" width="14.375" customWidth="1"/>
-    <col min="11" max="11" width="11.375" customWidth="1"/>
-    <col min="12" max="12" width="10.25" customWidth="1"/>
-    <col min="13" max="13" width="9.625" customWidth="1"/>
+    <col min="10" max="10" width="16" customWidth="1"/>
+    <col min="11" max="11" width="14.3984375" customWidth="1"/>
+    <col min="12" max="12" width="11.3984375" customWidth="1"/>
+    <col min="13" max="13" width="10.19921875" customWidth="1"/>
+    <col min="14" max="14" width="9.59765625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -951,28 +923,31 @@
         <v>6</v>
       </c>
       <c r="H1" t="s">
-        <v>71</v>
+        <v>122</v>
       </c>
       <c r="I1" t="s">
+        <v>123</v>
+      </c>
+      <c r="J1" t="s">
         <v>7</v>
       </c>
-      <c r="J1" t="s">
+      <c r="K1" t="s">
         <v>8</v>
       </c>
-      <c r="K1" t="s">
+      <c r="L1" t="s">
         <v>9</v>
       </c>
-      <c r="L1" t="s">
-        <v>61</v>
-      </c>
       <c r="M1" t="s">
-        <v>62</v>
+        <v>54</v>
       </c>
       <c r="N1" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.3">
+        <v>55</v>
+      </c>
+      <c r="O1" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A2">
         <v>1100</v>
       </c>
@@ -991,54 +966,60 @@
       <c r="F2" t="s">
         <v>14</v>
       </c>
-      <c r="H2" t="s">
+      <c r="H2">
+        <v>0.3</v>
+      </c>
+      <c r="I2">
+        <v>0</v>
+      </c>
+      <c r="J2" t="s">
         <v>15</v>
       </c>
-      <c r="I2" t="s">
-        <v>16</v>
-      </c>
-      <c r="K2">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="L2">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A3">
         <v>1101</v>
       </c>
       <c r="B3" t="s">
+        <v>16</v>
+      </c>
+      <c r="C3" t="s">
         <v>17</v>
       </c>
-      <c r="C3" t="s">
+      <c r="D3" t="s">
+        <v>12</v>
+      </c>
+      <c r="E3" t="s">
+        <v>13</v>
+      </c>
+      <c r="F3" t="s">
         <v>18</v>
       </c>
-      <c r="D3" t="s">
-        <v>12</v>
-      </c>
-      <c r="E3" t="s">
-        <v>13</v>
-      </c>
-      <c r="F3" t="s">
+      <c r="H3">
+        <v>0.3</v>
+      </c>
+      <c r="I3">
+        <v>5</v>
+      </c>
+      <c r="J3" t="s">
         <v>19</v>
       </c>
-      <c r="H3" t="s">
-        <v>15</v>
-      </c>
-      <c r="I3" t="s">
-        <v>20</v>
-      </c>
-      <c r="K3">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="L3">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A4">
         <v>1102</v>
       </c>
       <c r="B4" t="s">
+        <v>20</v>
+      </c>
+      <c r="C4" t="s">
         <v>21</v>
-      </c>
-      <c r="C4" t="s">
-        <v>22</v>
       </c>
       <c r="D4" t="s">
         <v>12</v>
@@ -1049,54 +1030,60 @@
       <c r="F4" t="s">
         <v>14</v>
       </c>
-      <c r="H4" t="s">
-        <v>23</v>
-      </c>
-      <c r="I4" t="s">
-        <v>24</v>
-      </c>
-      <c r="K4">
+      <c r="H4">
+        <v>0.5</v>
+      </c>
+      <c r="I4">
+        <v>4</v>
+      </c>
+      <c r="J4" t="s">
+        <v>22</v>
+      </c>
+      <c r="L4">
         <v>20</v>
       </c>
     </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A5">
         <v>1103</v>
       </c>
       <c r="B5" t="s">
+        <v>23</v>
+      </c>
+      <c r="C5" t="s">
+        <v>24</v>
+      </c>
+      <c r="D5" t="s">
+        <v>12</v>
+      </c>
+      <c r="E5" t="s">
         <v>25</v>
       </c>
-      <c r="C5" t="s">
-        <v>26</v>
-      </c>
-      <c r="D5" t="s">
-        <v>12</v>
-      </c>
-      <c r="E5" t="s">
-        <v>27</v>
-      </c>
       <c r="F5" t="s">
-        <v>19</v>
-      </c>
-      <c r="H5" t="s">
-        <v>28</v>
-      </c>
-      <c r="I5" t="s">
-        <v>16</v>
-      </c>
-      <c r="K5">
+        <v>18</v>
+      </c>
+      <c r="H5">
+        <v>0.7</v>
+      </c>
+      <c r="I5">
+        <v>0</v>
+      </c>
+      <c r="J5" t="s">
+        <v>15</v>
+      </c>
+      <c r="L5">
         <v>40</v>
       </c>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A6">
         <v>1104</v>
       </c>
       <c r="B6" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="C6" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="D6" t="s">
         <v>12</v>
@@ -1105,27 +1092,30 @@
         <v>13</v>
       </c>
       <c r="F6" t="s">
-        <v>31</v>
-      </c>
-      <c r="H6" t="s">
-        <v>32</v>
-      </c>
-      <c r="I6" t="s">
-        <v>16</v>
-      </c>
-      <c r="K6">
+        <v>28</v>
+      </c>
+      <c r="H6">
+        <v>0.6</v>
+      </c>
+      <c r="I6">
+        <v>0</v>
+      </c>
+      <c r="J6" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="L6">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A7">
         <v>1105</v>
       </c>
       <c r="B7" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="C7" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="D7" t="s">
         <v>12</v>
@@ -1134,24 +1124,27 @@
         <v>13</v>
       </c>
       <c r="F7" t="s">
-        <v>31</v>
-      </c>
-      <c r="H7" t="s">
-        <v>35</v>
-      </c>
-      <c r="I7" t="s">
+        <v>28</v>
+      </c>
+      <c r="H7">
+        <v>0.4</v>
+      </c>
+      <c r="I7">
+        <v>5</v>
+      </c>
+      <c r="J7" t="s">
+        <v>19</v>
+      </c>
+      <c r="L7">
         <v>20</v>
       </c>
-      <c r="K7">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.3">
+    </row>
+    <row r="8" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A8">
         <v>1106</v>
       </c>
       <c r="B8" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="C8" t="s">
         <v>11</v>
@@ -1163,85 +1156,94 @@
         <v>13</v>
       </c>
       <c r="F8" t="s">
-        <v>19</v>
-      </c>
-      <c r="H8" t="s">
+        <v>18</v>
+      </c>
+      <c r="H8">
+        <v>0.3</v>
+      </c>
+      <c r="I8">
+        <v>0</v>
+      </c>
+      <c r="J8" t="s">
         <v>15</v>
       </c>
-      <c r="I8" t="s">
-        <v>16</v>
-      </c>
-      <c r="K8">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="L8">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A9">
         <v>1107</v>
       </c>
       <c r="B9" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="C9" t="s">
+        <v>17</v>
+      </c>
+      <c r="D9" t="s">
+        <v>12</v>
+      </c>
+      <c r="E9" t="s">
+        <v>13</v>
+      </c>
+      <c r="F9" t="s">
         <v>18</v>
       </c>
-      <c r="D9" t="s">
-        <v>12</v>
-      </c>
-      <c r="E9" t="s">
-        <v>13</v>
-      </c>
-      <c r="F9" t="s">
+      <c r="H9">
+        <v>0.3</v>
+      </c>
+      <c r="I9">
+        <v>5</v>
+      </c>
+      <c r="J9" t="s">
         <v>19</v>
       </c>
-      <c r="H9" t="s">
-        <v>15</v>
-      </c>
-      <c r="I9" t="s">
-        <v>20</v>
-      </c>
-      <c r="K9">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="L9">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A10">
         <v>1108</v>
       </c>
       <c r="B10" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="C10" t="s">
+        <v>21</v>
+      </c>
+      <c r="D10" t="s">
+        <v>12</v>
+      </c>
+      <c r="E10" t="s">
+        <v>13</v>
+      </c>
+      <c r="F10" t="s">
+        <v>34</v>
+      </c>
+      <c r="H10">
+        <v>0.5</v>
+      </c>
+      <c r="I10">
+        <v>4</v>
+      </c>
+      <c r="J10" t="s">
         <v>22</v>
       </c>
-      <c r="D10" t="s">
-        <v>12</v>
-      </c>
-      <c r="E10" t="s">
-        <v>13</v>
-      </c>
-      <c r="F10" t="s">
-        <v>39</v>
-      </c>
-      <c r="H10" t="s">
-        <v>23</v>
-      </c>
-      <c r="I10" t="s">
-        <v>24</v>
-      </c>
-      <c r="K10">
+      <c r="L10">
         <v>20</v>
       </c>
     </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A11">
         <v>1109</v>
       </c>
       <c r="B11" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="C11" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="D11" t="s">
         <v>12</v>
@@ -1252,25 +1254,28 @@
       <c r="F11" t="s">
         <v>14</v>
       </c>
-      <c r="H11" t="s">
-        <v>32</v>
-      </c>
-      <c r="I11" t="s">
-        <v>16</v>
-      </c>
-      <c r="K11">
+      <c r="H11">
+        <v>0.6</v>
+      </c>
+      <c r="I11">
+        <v>0</v>
+      </c>
+      <c r="J11" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="L11">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A12">
         <v>5100</v>
       </c>
       <c r="B12" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="C12" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="D12" t="s">
         <v>12</v>
@@ -1282,27 +1287,30 @@
         <v>14</v>
       </c>
       <c r="G12" t="s">
-        <v>43</v>
-      </c>
-      <c r="H12" t="s">
-        <v>23</v>
-      </c>
-      <c r="I12" t="s">
-        <v>16</v>
-      </c>
-      <c r="K12">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.3">
+        <v>38</v>
+      </c>
+      <c r="H12">
+        <v>0.5</v>
+      </c>
+      <c r="I12">
+        <v>0</v>
+      </c>
+      <c r="J12" t="s">
+        <v>15</v>
+      </c>
+      <c r="L12">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A13">
         <v>5101</v>
       </c>
       <c r="B13" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="C13" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="D13" t="s">
         <v>12</v>
@@ -1311,30 +1319,33 @@
         <v>13</v>
       </c>
       <c r="F13" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="G13" t="s">
-        <v>46</v>
-      </c>
-      <c r="H13" t="s">
-        <v>47</v>
-      </c>
-      <c r="I13" t="s">
-        <v>16</v>
-      </c>
-      <c r="K13">
+        <v>41</v>
+      </c>
+      <c r="H13">
+        <v>0.7</v>
+      </c>
+      <c r="I13">
+        <v>0</v>
+      </c>
+      <c r="J13" t="s">
+        <v>15</v>
+      </c>
+      <c r="L13">
         <v>5</v>
       </c>
     </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A14">
         <v>5102</v>
       </c>
       <c r="B14" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="C14" t="s">
-        <v>49</v>
+        <v>43</v>
       </c>
       <c r="D14" t="s">
         <v>12</v>
@@ -1346,27 +1357,30 @@
         <v>14</v>
       </c>
       <c r="G14" t="s">
-        <v>50</v>
-      </c>
-      <c r="H14" t="s">
-        <v>23</v>
-      </c>
-      <c r="I14" t="s">
-        <v>24</v>
-      </c>
-      <c r="K14">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.3">
+        <v>44</v>
+      </c>
+      <c r="H14">
+        <v>0.5</v>
+      </c>
+      <c r="I14">
+        <v>4</v>
+      </c>
+      <c r="J14" t="s">
+        <v>22</v>
+      </c>
+      <c r="L14">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A15">
         <v>5103</v>
       </c>
       <c r="B15" t="s">
-        <v>51</v>
+        <v>45</v>
       </c>
       <c r="C15" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
       <c r="D15" t="s">
         <v>12</v>
@@ -1375,192 +1389,210 @@
         <v>13</v>
       </c>
       <c r="F15" t="s">
+        <v>18</v>
+      </c>
+      <c r="G15" t="s">
+        <v>47</v>
+      </c>
+      <c r="H15">
+        <v>0.3</v>
+      </c>
+      <c r="I15">
+        <v>5</v>
+      </c>
+      <c r="J15" t="s">
         <v>19</v>
       </c>
-      <c r="G15" t="s">
-        <v>53</v>
-      </c>
-      <c r="H15" t="s">
-        <v>15</v>
-      </c>
-      <c r="I15" t="s">
-        <v>20</v>
-      </c>
-      <c r="K15">
+      <c r="L15">
         <v>5</v>
       </c>
     </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A16">
         <v>5104</v>
       </c>
       <c r="B16" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
       <c r="C16" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
       <c r="D16" t="s">
         <v>12</v>
       </c>
       <c r="E16" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="F16" t="s">
         <v>14</v>
       </c>
       <c r="G16" t="s">
-        <v>56</v>
-      </c>
-      <c r="H16" t="s">
-        <v>23</v>
-      </c>
-      <c r="I16" t="s">
-        <v>16</v>
-      </c>
-      <c r="K16">
         <v>50</v>
       </c>
-    </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="H16">
+        <v>0.5</v>
+      </c>
+      <c r="I16">
+        <v>0</v>
+      </c>
+      <c r="J16" t="s">
+        <v>15</v>
+      </c>
+      <c r="L16">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A17">
         <v>5105</v>
       </c>
       <c r="B17" t="s">
-        <v>57</v>
+        <v>51</v>
       </c>
       <c r="C17" t="s">
-        <v>58</v>
+        <v>52</v>
       </c>
       <c r="D17" t="s">
         <v>12</v>
       </c>
       <c r="E17" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="F17" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="G17" t="s">
-        <v>59</v>
-      </c>
-      <c r="H17" t="s">
-        <v>60</v>
-      </c>
-      <c r="I17" t="s">
-        <v>20</v>
-      </c>
-      <c r="K17">
+        <v>53</v>
+      </c>
+      <c r="H17">
+        <v>1</v>
+      </c>
+      <c r="I17">
+        <v>5</v>
+      </c>
+      <c r="J17" t="s">
+        <v>19</v>
+      </c>
+      <c r="L17">
         <v>15</v>
       </c>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A18">
         <v>5106</v>
       </c>
       <c r="B18" t="s">
-        <v>64</v>
+        <v>57</v>
       </c>
       <c r="C18" t="s">
-        <v>75</v>
+        <v>66</v>
       </c>
       <c r="D18" t="s">
         <v>12</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>66</v>
+        <v>59</v>
       </c>
       <c r="F18" s="2" t="s">
         <v>14</v>
       </c>
       <c r="G18" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="H18" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="I18" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="J18" s="2"/>
-      <c r="K18" s="2">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.3">
+        <v>38</v>
+      </c>
+      <c r="H18" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="I18">
+        <v>0</v>
+      </c>
+      <c r="J18" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="K18" s="2"/>
+      <c r="L18" s="2">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="19" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A19">
         <v>5107</v>
       </c>
       <c r="B19" t="s">
-        <v>65</v>
+        <v>58</v>
       </c>
       <c r="C19" t="s">
-        <v>76</v>
+        <v>67</v>
       </c>
       <c r="D19" t="s">
         <v>12</v>
       </c>
       <c r="E19" s="2" t="s">
-        <v>66</v>
+        <v>59</v>
       </c>
       <c r="F19" s="2" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="G19" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="H19" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="I19" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="J19" s="2"/>
-      <c r="K19" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.3">
+        <v>53</v>
+      </c>
+      <c r="H19" s="2">
+        <v>1</v>
+      </c>
+      <c r="I19">
+        <v>5</v>
+      </c>
+      <c r="J19" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="K19" s="2"/>
+      <c r="L19" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A20">
         <v>5108</v>
       </c>
       <c r="B20" t="s">
-        <v>67</v>
+        <v>60</v>
       </c>
       <c r="C20" t="s">
-        <v>68</v>
+        <v>61</v>
       </c>
       <c r="D20" t="s">
-        <v>69</v>
+        <v>62</v>
       </c>
       <c r="E20" t="s">
         <v>13</v>
       </c>
       <c r="F20" t="s">
-        <v>70</v>
+        <v>63</v>
       </c>
       <c r="G20" t="s">
-        <v>72</v>
-      </c>
-      <c r="H20" t="s">
-        <v>73</v>
-      </c>
-      <c r="I20" t="s">
-        <v>74</v>
-      </c>
-      <c r="K20">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="21" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.3">
+        <v>64</v>
+      </c>
+      <c r="H20">
+        <v>0.5</v>
+      </c>
+      <c r="I20">
+        <v>5</v>
+      </c>
+      <c r="J20" t="s">
+        <v>65</v>
+      </c>
+      <c r="L20">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="21" spans="1:12" s="3" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A21" s="3">
         <v>5109</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>108</v>
+        <v>99</v>
       </c>
       <c r="C21" s="3" t="s">
-        <v>77</v>
+        <v>68</v>
       </c>
       <c r="D21" s="3" t="s">
         <v>12</v>
@@ -1571,25 +1603,28 @@
       <c r="F21" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="H21" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="I21" s="3" t="s">
-        <v>126</v>
-      </c>
-      <c r="K21" s="3">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="22" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="H21" s="3">
+        <v>0.5</v>
+      </c>
+      <c r="I21">
+        <v>0</v>
+      </c>
+      <c r="J21" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="L21" s="3">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="22" spans="1:12" s="3" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A22" s="3">
         <v>5110</v>
       </c>
       <c r="B22" s="3" t="s">
-        <v>109</v>
+        <v>100</v>
       </c>
       <c r="C22" s="3" t="s">
-        <v>78</v>
+        <v>69</v>
       </c>
       <c r="D22" s="3" t="s">
         <v>12</v>
@@ -1598,27 +1633,30 @@
         <v>13</v>
       </c>
       <c r="F22" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="H22" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="I22" s="3" t="s">
-        <v>126</v>
-      </c>
-      <c r="K22" s="3">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="23" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.3">
+        <v>18</v>
+      </c>
+      <c r="H22" s="3">
+        <v>0.5</v>
+      </c>
+      <c r="I22">
+        <v>0</v>
+      </c>
+      <c r="J22" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="L22" s="3">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="23" spans="1:12" s="3" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A23" s="3">
         <v>5111</v>
       </c>
       <c r="B23" s="3" t="s">
-        <v>117</v>
+        <v>108</v>
       </c>
       <c r="C23" s="3" t="s">
-        <v>79</v>
+        <v>70</v>
       </c>
       <c r="D23" s="3" t="s">
         <v>12</v>
@@ -1629,25 +1667,28 @@
       <c r="F23" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="H23" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="I23" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="K23" s="3">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="24" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="H23" s="3">
+        <v>0.5</v>
+      </c>
+      <c r="I23">
+        <v>0</v>
+      </c>
+      <c r="J23" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="L23" s="3">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="24" spans="1:12" s="3" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A24" s="3">
         <v>5112</v>
       </c>
       <c r="B24" s="3" t="s">
-        <v>117</v>
+        <v>108</v>
       </c>
       <c r="C24" s="3" t="s">
-        <v>80</v>
+        <v>71</v>
       </c>
       <c r="D24" s="3" t="s">
         <v>12</v>
@@ -1656,27 +1697,30 @@
         <v>13</v>
       </c>
       <c r="F24" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="H24" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="I24" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="K24" s="3">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="25" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.3">
+        <v>18</v>
+      </c>
+      <c r="H24" s="3">
+        <v>0.5</v>
+      </c>
+      <c r="I24">
+        <v>0</v>
+      </c>
+      <c r="J24" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="L24" s="3">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="25" spans="1:12" s="3" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A25" s="3">
         <v>5113</v>
       </c>
       <c r="B25" s="3" t="s">
-        <v>100</v>
+        <v>91</v>
       </c>
       <c r="C25" s="3" t="s">
-        <v>81</v>
+        <v>72</v>
       </c>
       <c r="D25" s="3" t="s">
         <v>12</v>
@@ -1685,27 +1729,30 @@
         <v>13</v>
       </c>
       <c r="F25" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="H25" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="I25" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="K25" s="3">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="26" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.3">
+        <v>28</v>
+      </c>
+      <c r="H25" s="3">
+        <v>0.5</v>
+      </c>
+      <c r="I25">
+        <v>0</v>
+      </c>
+      <c r="J25" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="L25" s="3">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="26" spans="1:12" s="3" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A26" s="3">
         <v>5114</v>
       </c>
       <c r="B26" s="3" t="s">
-        <v>110</v>
+        <v>101</v>
       </c>
       <c r="C26" s="3" t="s">
-        <v>82</v>
+        <v>73</v>
       </c>
       <c r="D26" s="3" t="s">
         <v>12</v>
@@ -1714,27 +1761,30 @@
         <v>13</v>
       </c>
       <c r="F26" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="H26" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="I26" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="K26" s="3">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="27" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.3">
+        <v>28</v>
+      </c>
+      <c r="H26" s="3">
+        <v>0.5</v>
+      </c>
+      <c r="I26">
+        <v>0</v>
+      </c>
+      <c r="J26" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="L26" s="3">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="27" spans="1:12" s="3" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A27" s="3">
         <v>5115</v>
       </c>
       <c r="B27" s="3" t="s">
-        <v>118</v>
+        <v>109</v>
       </c>
       <c r="C27" s="3" t="s">
-        <v>83</v>
+        <v>74</v>
       </c>
       <c r="D27" s="3" t="s">
         <v>12</v>
@@ -1743,27 +1793,30 @@
         <v>13</v>
       </c>
       <c r="F27" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="H27" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="I27" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="K27" s="3">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="28" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.3">
+        <v>18</v>
+      </c>
+      <c r="H27" s="3">
+        <v>0.5</v>
+      </c>
+      <c r="I27">
+        <v>0</v>
+      </c>
+      <c r="J27" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="L27" s="3">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="28" spans="1:12" s="3" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A28" s="3">
         <v>5116</v>
       </c>
       <c r="B28" s="3" t="s">
-        <v>101</v>
+        <v>92</v>
       </c>
       <c r="C28" s="3" t="s">
-        <v>84</v>
+        <v>75</v>
       </c>
       <c r="D28" s="3" t="s">
         <v>12</v>
@@ -1772,27 +1825,30 @@
         <v>13</v>
       </c>
       <c r="F28" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="H28" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="I28" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="K28" s="3">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="29" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.3">
+        <v>18</v>
+      </c>
+      <c r="H28" s="3">
+        <v>0.5</v>
+      </c>
+      <c r="I28">
+        <v>0</v>
+      </c>
+      <c r="J28" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="L28" s="3">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="29" spans="1:12" s="3" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A29" s="3">
         <v>5117</v>
       </c>
       <c r="B29" s="3" t="s">
-        <v>111</v>
+        <v>102</v>
       </c>
       <c r="C29" s="3" t="s">
-        <v>85</v>
+        <v>76</v>
       </c>
       <c r="D29" s="3" t="s">
         <v>12</v>
@@ -1801,27 +1857,30 @@
         <v>13</v>
       </c>
       <c r="F29" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="H29" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="I29" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="K29" s="3">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="30" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.3">
+        <v>34</v>
+      </c>
+      <c r="H29" s="3">
+        <v>0.5</v>
+      </c>
+      <c r="I29">
+        <v>0</v>
+      </c>
+      <c r="J29" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="L29" s="3">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="30" spans="1:12" s="3" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A30" s="3">
         <v>5118</v>
       </c>
       <c r="B30" s="3" t="s">
-        <v>102</v>
+        <v>93</v>
       </c>
       <c r="C30" s="3" t="s">
-        <v>86</v>
+        <v>77</v>
       </c>
       <c r="D30" s="3" t="s">
         <v>12</v>
@@ -1832,25 +1891,28 @@
       <c r="F30" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="H30" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="I30" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="K30" s="3">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="31" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="H30" s="3">
+        <v>0.5</v>
+      </c>
+      <c r="I30">
+        <v>5</v>
+      </c>
+      <c r="J30" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="L30" s="3">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="31" spans="1:12" s="3" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A31" s="3">
         <v>5119</v>
       </c>
       <c r="B31" s="3" t="s">
-        <v>112</v>
+        <v>103</v>
       </c>
       <c r="C31" s="3" t="s">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="D31" s="3" t="s">
         <v>12</v>
@@ -1861,25 +1923,28 @@
       <c r="F31" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="H31" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="I31" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="K31" s="3">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="32" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="H31" s="3">
+        <v>0.5</v>
+      </c>
+      <c r="I31">
+        <v>5</v>
+      </c>
+      <c r="J31" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="L31" s="3">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="32" spans="1:12" s="3" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A32" s="3">
         <v>5120</v>
       </c>
       <c r="B32" s="3" t="s">
-        <v>103</v>
+        <v>94</v>
       </c>
       <c r="C32" s="3" t="s">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="D32" s="3" t="s">
         <v>12</v>
@@ -1888,27 +1953,30 @@
         <v>13</v>
       </c>
       <c r="F32" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="H32" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="I32" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="K32" s="3">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="33" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.3">
+        <v>28</v>
+      </c>
+      <c r="H32" s="3">
+        <v>0.5</v>
+      </c>
+      <c r="I32">
+        <v>5</v>
+      </c>
+      <c r="J32" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="L32" s="3">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="33" spans="1:12" s="3" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A33" s="3">
         <v>5121</v>
       </c>
       <c r="B33" s="3" t="s">
-        <v>104</v>
+        <v>95</v>
       </c>
       <c r="C33" s="3" t="s">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="D33" s="3" t="s">
         <v>12</v>
@@ -1919,25 +1987,28 @@
       <c r="F33" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="H33" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="I33" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="K33" s="3">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="34" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="H33" s="3">
+        <v>0.5</v>
+      </c>
+      <c r="I33">
+        <v>0</v>
+      </c>
+      <c r="J33" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="L33" s="3">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="34" spans="1:12" s="3" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A34" s="3">
         <v>5122</v>
       </c>
       <c r="B34" s="3" t="s">
-        <v>113</v>
+        <v>104</v>
       </c>
       <c r="C34" s="3" t="s">
-        <v>90</v>
+        <v>81</v>
       </c>
       <c r="D34" s="3" t="s">
         <v>12</v>
@@ -1946,27 +2017,30 @@
         <v>13</v>
       </c>
       <c r="F34" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="H34" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="I34" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="K34" s="3">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="35" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.3">
+        <v>18</v>
+      </c>
+      <c r="H34" s="3">
+        <v>0.5</v>
+      </c>
+      <c r="I34">
+        <v>0</v>
+      </c>
+      <c r="J34" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="L34" s="3">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="35" spans="1:12" s="3" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A35" s="3">
         <v>5123</v>
       </c>
       <c r="B35" s="3" t="s">
-        <v>119</v>
+        <v>110</v>
       </c>
       <c r="C35" s="3" t="s">
-        <v>91</v>
+        <v>82</v>
       </c>
       <c r="D35" s="3" t="s">
         <v>12</v>
@@ -1977,25 +2051,28 @@
       <c r="F35" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="H35" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="I35" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="K35" s="3">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="36" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="H35" s="3">
+        <v>0.5</v>
+      </c>
+      <c r="I35">
+        <v>0</v>
+      </c>
+      <c r="J35" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="L35" s="3">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="36" spans="1:12" s="3" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A36" s="3">
         <v>5124</v>
       </c>
       <c r="B36" s="3" t="s">
-        <v>123</v>
+        <v>114</v>
       </c>
       <c r="C36" s="3" t="s">
-        <v>92</v>
+        <v>83</v>
       </c>
       <c r="D36" s="3" t="s">
         <v>12</v>
@@ -2004,27 +2081,30 @@
         <v>13</v>
       </c>
       <c r="F36" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="H36" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="I36" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="K36" s="3">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="37" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.3">
+        <v>28</v>
+      </c>
+      <c r="H36" s="3">
+        <v>0.5</v>
+      </c>
+      <c r="I36">
+        <v>5</v>
+      </c>
+      <c r="J36" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="L36" s="3">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="37" spans="1:12" s="3" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A37" s="3">
         <v>5125</v>
       </c>
       <c r="B37" s="3" t="s">
-        <v>105</v>
+        <v>96</v>
       </c>
       <c r="C37" s="3" t="s">
-        <v>93</v>
+        <v>84</v>
       </c>
       <c r="D37" s="3" t="s">
         <v>12</v>
@@ -2035,25 +2115,28 @@
       <c r="F37" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="H37" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="I37" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="K37" s="3">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="38" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="H37" s="3">
+        <v>0.5</v>
+      </c>
+      <c r="I37">
+        <v>0</v>
+      </c>
+      <c r="J37" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="L37" s="3">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="38" spans="1:12" s="3" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A38" s="3">
         <v>5126</v>
       </c>
       <c r="B38" s="3" t="s">
-        <v>114</v>
+        <v>105</v>
       </c>
       <c r="C38" s="3" t="s">
-        <v>94</v>
+        <v>85</v>
       </c>
       <c r="D38" s="3" t="s">
         <v>12</v>
@@ -2062,27 +2145,30 @@
         <v>13</v>
       </c>
       <c r="F38" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="H38" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="I38" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="K38" s="3">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="39" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.3">
+        <v>28</v>
+      </c>
+      <c r="H38" s="3">
+        <v>0.5</v>
+      </c>
+      <c r="I38">
+        <v>0</v>
+      </c>
+      <c r="J38" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="L38" s="3">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="39" spans="1:12" s="3" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A39" s="3">
         <v>5127</v>
       </c>
       <c r="B39" s="3" t="s">
-        <v>120</v>
+        <v>111</v>
       </c>
       <c r="C39" s="3" t="s">
-        <v>95</v>
+        <v>86</v>
       </c>
       <c r="D39" s="3" t="s">
         <v>12</v>
@@ -2091,27 +2177,30 @@
         <v>13</v>
       </c>
       <c r="F39" s="3" t="s">
-        <v>70</v>
-      </c>
-      <c r="H39" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="I39" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="K39" s="3">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="40" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.3">
+        <v>63</v>
+      </c>
+      <c r="H39" s="3">
+        <v>0.5</v>
+      </c>
+      <c r="I39">
+        <v>0</v>
+      </c>
+      <c r="J39" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="L39" s="3">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="40" spans="1:12" s="3" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A40" s="3">
         <v>5128</v>
       </c>
       <c r="B40" s="3" t="s">
-        <v>106</v>
+        <v>97</v>
       </c>
       <c r="C40" s="3" t="s">
-        <v>96</v>
+        <v>87</v>
       </c>
       <c r="D40" s="3" t="s">
         <v>12</v>
@@ -2120,27 +2209,30 @@
         <v>13</v>
       </c>
       <c r="F40" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="H40" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="I40" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="K40" s="3">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="41" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.3">
+        <v>34</v>
+      </c>
+      <c r="H40" s="3">
+        <v>0.5</v>
+      </c>
+      <c r="I40">
+        <v>5</v>
+      </c>
+      <c r="J40" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="L40" s="3">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="41" spans="1:12" s="3" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A41" s="3">
         <v>5129</v>
       </c>
       <c r="B41" s="3" t="s">
-        <v>115</v>
+        <v>106</v>
       </c>
       <c r="C41" s="3" t="s">
-        <v>97</v>
+        <v>88</v>
       </c>
       <c r="D41" s="3" t="s">
         <v>12</v>
@@ -2151,25 +2243,28 @@
       <c r="F41" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="H41" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="I41" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="K41" s="3">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="42" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="H41" s="3">
+        <v>0.5</v>
+      </c>
+      <c r="I41">
+        <v>5</v>
+      </c>
+      <c r="J41" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="L41" s="3">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="42" spans="1:12" s="3" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A42" s="3">
         <v>5130</v>
       </c>
       <c r="B42" s="3" t="s">
-        <v>121</v>
+        <v>112</v>
       </c>
       <c r="C42" s="3" t="s">
-        <v>98</v>
+        <v>89</v>
       </c>
       <c r="D42" s="3" t="s">
         <v>12</v>
@@ -2180,25 +2275,28 @@
       <c r="F42" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="H42" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="I42" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="K42" s="3">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="43" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="H42" s="3">
+        <v>0.5</v>
+      </c>
+      <c r="I42">
+        <v>5</v>
+      </c>
+      <c r="J42" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="L42" s="3">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="43" spans="1:12" s="3" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A43" s="3">
         <v>5131</v>
       </c>
       <c r="B43" s="3" t="s">
-        <v>124</v>
+        <v>115</v>
       </c>
       <c r="C43" s="3" t="s">
-        <v>99</v>
+        <v>90</v>
       </c>
       <c r="D43" s="3" t="s">
         <v>12</v>
@@ -2207,27 +2305,30 @@
         <v>13</v>
       </c>
       <c r="F43" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="H43" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="I43" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="K43" s="3">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="44" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.3">
+        <v>28</v>
+      </c>
+      <c r="H43" s="3">
+        <v>0.5</v>
+      </c>
+      <c r="I43">
+        <v>5</v>
+      </c>
+      <c r="J43" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="L43" s="3">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="44" spans="1:12" s="3" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A44" s="3">
         <v>5132</v>
       </c>
       <c r="B44" s="3" t="s">
-        <v>107</v>
+        <v>98</v>
       </c>
       <c r="C44" s="3" t="s">
-        <v>127</v>
+        <v>118</v>
       </c>
       <c r="D44" s="3" t="s">
         <v>12</v>
@@ -2238,25 +2339,28 @@
       <c r="F44" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="H44" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="I44" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="K44" s="3">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="45" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="H44" s="3">
+        <v>0.5</v>
+      </c>
+      <c r="I44">
+        <v>4</v>
+      </c>
+      <c r="J44" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="L44" s="3">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="45" spans="1:12" s="3" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A45" s="3">
         <v>5133</v>
       </c>
       <c r="B45" s="3" t="s">
-        <v>116</v>
+        <v>107</v>
       </c>
       <c r="C45" s="3" t="s">
-        <v>128</v>
+        <v>119</v>
       </c>
       <c r="D45" s="3" t="s">
         <v>12</v>
@@ -2265,27 +2369,30 @@
         <v>13</v>
       </c>
       <c r="F45" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="H45" s="3">
+        <v>0.5</v>
+      </c>
+      <c r="I45">
+        <v>5</v>
+      </c>
+      <c r="J45" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="H45" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="I45" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="K45" s="3">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="46" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="L45" s="3">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="46" spans="1:12" s="3" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A46" s="3">
         <v>5134</v>
       </c>
       <c r="B46" s="3" t="s">
-        <v>122</v>
+        <v>113</v>
       </c>
       <c r="C46" s="3" t="s">
-        <v>129</v>
+        <v>120</v>
       </c>
       <c r="D46" s="3" t="s">
         <v>12</v>
@@ -2296,25 +2403,28 @@
       <c r="F46" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="H46" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="I46" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="K46" s="3">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="47" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="H46" s="3">
+        <v>0.5</v>
+      </c>
+      <c r="I46">
+        <v>5</v>
+      </c>
+      <c r="J46" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="L46" s="3">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="47" spans="1:12" s="3" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A47" s="3">
         <v>5135</v>
       </c>
       <c r="B47" s="3" t="s">
-        <v>125</v>
+        <v>116</v>
       </c>
       <c r="C47" s="3" t="s">
-        <v>130</v>
+        <v>121</v>
       </c>
       <c r="D47" s="3" t="s">
         <v>12</v>
@@ -2323,26 +2433,29 @@
         <v>13</v>
       </c>
       <c r="F47" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="H47" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="I47" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="K47" s="3">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="48" spans="1:11" x14ac:dyDescent="0.3">
+        <v>28</v>
+      </c>
+      <c r="H47" s="3">
+        <v>0.5</v>
+      </c>
+      <c r="I47">
+        <v>4</v>
+      </c>
+      <c r="J47" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="L47" s="3">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="48" spans="1:12" x14ac:dyDescent="0.4">
       <c r="F48" s="2"/>
     </row>
-    <row r="49" spans="6:6" x14ac:dyDescent="0.3">
+    <row r="49" spans="6:6" x14ac:dyDescent="0.4">
       <c r="F49" s="2"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:N1" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
+  <autoFilter ref="A1:N47" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/DesignDocs/VariableData/TubeStyle.xlsx
+++ b/DesignDocs/VariableData/TubeStyle.xlsx
@@ -1,22 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="19126"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20228"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\OptIn\Documents\2D-Side-View-Roguelike\DesignDocs\VariableData\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\2D-Side-View-Roguelike\DesignDocs\VariableData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{1FD1BFAC-C325-4E19-B1D2-AC3B82D058AB}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B850D7FA-A6E4-452A-9D38-D8D3AA6CBCC2}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11196" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11190" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$N$47</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$M$47</definedName>
   </definedNames>
   <calcPr calcId="152511"/>
   <extLst>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="300" uniqueCount="124">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="300" uniqueCount="117">
   <si>
     <t>cid</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -54,10 +54,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>motion</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>attackType</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -179,10 +175,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>no107_skill</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>no108_style</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -191,10 +183,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>no107_attack1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>jake_B_style</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -203,10 +191,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>jake_B_attack</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>jake_R_style</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -215,10 +199,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>jake_R_attack</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>doncina01_style</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -227,10 +207,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>doncina_skill00</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>doncina02_style</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -239,10 +215,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>doncina_skill01</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>combo</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -283,10 +255,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>mingkies_skill</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>range</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -467,6 +435,10 @@
   </si>
   <si>
     <t>range</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Mid</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -879,28 +851,27 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:O49"/>
+  <dimension ref="A1:N49"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="J7" sqref="J7"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G7" sqref="G7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="23.69921875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="19.59765625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="9.69921875" customWidth="1"/>
-    <col min="6" max="6" width="17.69921875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="13.3984375" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="16.5" customWidth="1"/>
-    <col min="10" max="10" width="16" customWidth="1"/>
-    <col min="11" max="11" width="14.3984375" customWidth="1"/>
-    <col min="12" max="12" width="11.3984375" customWidth="1"/>
-    <col min="13" max="13" width="10.19921875" customWidth="1"/>
-    <col min="14" max="14" width="9.59765625" customWidth="1"/>
+    <col min="2" max="2" width="23.75" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="19.625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.75" customWidth="1"/>
+    <col min="6" max="6" width="17.75" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="16.5" customWidth="1"/>
+    <col min="9" max="9" width="16" customWidth="1"/>
+    <col min="10" max="10" width="14.375" customWidth="1"/>
+    <col min="11" max="11" width="11.375" customWidth="1"/>
+    <col min="12" max="12" width="10.25" customWidth="1"/>
+    <col min="13" max="13" width="9.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -920,13 +891,13 @@
         <v>5</v>
       </c>
       <c r="G1" t="s">
+        <v>114</v>
+      </c>
+      <c r="H1" t="s">
+        <v>115</v>
+      </c>
+      <c r="I1" t="s">
         <v>6</v>
-      </c>
-      <c r="H1" t="s">
-        <v>122</v>
-      </c>
-      <c r="I1" t="s">
-        <v>123</v>
       </c>
       <c r="J1" t="s">
         <v>7</v>
@@ -935,1527 +906,1527 @@
         <v>8</v>
       </c>
       <c r="L1" t="s">
-        <v>9</v>
+        <v>47</v>
       </c>
       <c r="M1" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
       <c r="N1" t="s">
-        <v>55</v>
-      </c>
-      <c r="O1" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.4">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>1100</v>
       </c>
       <c r="B2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E2" t="s">
+        <v>12</v>
+      </c>
+      <c r="F2" t="s">
         <v>13</v>
       </c>
-      <c r="F2" t="s">
+      <c r="G2">
+        <v>0.3</v>
+      </c>
+      <c r="H2">
+        <v>0</v>
+      </c>
+      <c r="I2" t="s">
         <v>14</v>
       </c>
-      <c r="H2">
-        <v>0.3</v>
-      </c>
-      <c r="I2">
-        <v>0</v>
-      </c>
       <c r="J2" t="s">
-        <v>15</v>
-      </c>
-      <c r="L2">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.4">
+        <v>116</v>
+      </c>
+      <c r="K2">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>1101</v>
       </c>
       <c r="B3" t="s">
+        <v>15</v>
+      </c>
+      <c r="C3" t="s">
         <v>16</v>
       </c>
-      <c r="C3" t="s">
+      <c r="D3" t="s">
+        <v>11</v>
+      </c>
+      <c r="E3" t="s">
+        <v>12</v>
+      </c>
+      <c r="F3" t="s">
         <v>17</v>
       </c>
-      <c r="D3" t="s">
-        <v>12</v>
-      </c>
-      <c r="E3" t="s">
-        <v>13</v>
-      </c>
-      <c r="F3" t="s">
+      <c r="G3">
+        <v>0.3</v>
+      </c>
+      <c r="H3">
+        <v>5</v>
+      </c>
+      <c r="I3" t="s">
         <v>18</v>
       </c>
-      <c r="H3">
-        <v>0.3</v>
-      </c>
-      <c r="I3">
-        <v>5</v>
-      </c>
       <c r="J3" t="s">
-        <v>19</v>
-      </c>
-      <c r="L3">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.4">
+        <v>116</v>
+      </c>
+      <c r="K3">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>1102</v>
       </c>
       <c r="B4" t="s">
+        <v>19</v>
+      </c>
+      <c r="C4" t="s">
         <v>20</v>
       </c>
-      <c r="C4" t="s">
+      <c r="D4" t="s">
+        <v>11</v>
+      </c>
+      <c r="E4" t="s">
+        <v>12</v>
+      </c>
+      <c r="F4" t="s">
+        <v>13</v>
+      </c>
+      <c r="G4">
+        <v>0.5</v>
+      </c>
+      <c r="H4">
+        <v>4</v>
+      </c>
+      <c r="I4" t="s">
         <v>21</v>
       </c>
-      <c r="D4" t="s">
-        <v>12</v>
-      </c>
-      <c r="E4" t="s">
-        <v>13</v>
-      </c>
-      <c r="F4" t="s">
-        <v>14</v>
-      </c>
-      <c r="H4">
-        <v>0.5</v>
-      </c>
-      <c r="I4">
-        <v>4</v>
-      </c>
       <c r="J4" t="s">
-        <v>22</v>
-      </c>
-      <c r="L4">
+        <v>116</v>
+      </c>
+      <c r="K4">
         <v>20</v>
       </c>
     </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>1103</v>
       </c>
       <c r="B5" t="s">
+        <v>22</v>
+      </c>
+      <c r="C5" t="s">
         <v>23</v>
       </c>
-      <c r="C5" t="s">
+      <c r="D5" t="s">
+        <v>11</v>
+      </c>
+      <c r="E5" t="s">
         <v>24</v>
       </c>
-      <c r="D5" t="s">
-        <v>12</v>
-      </c>
-      <c r="E5" t="s">
-        <v>25</v>
-      </c>
       <c r="F5" t="s">
-        <v>18</v>
+        <v>17</v>
+      </c>
+      <c r="G5">
+        <v>0.7</v>
       </c>
       <c r="H5">
-        <v>0.7</v>
-      </c>
-      <c r="I5">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="I5" t="s">
+        <v>14</v>
       </c>
       <c r="J5" t="s">
-        <v>15</v>
-      </c>
-      <c r="L5">
+        <v>116</v>
+      </c>
+      <c r="K5">
         <v>40</v>
       </c>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>1104</v>
       </c>
       <c r="B6" t="s">
+        <v>25</v>
+      </c>
+      <c r="C6" t="s">
         <v>26</v>
       </c>
-      <c r="C6" t="s">
+      <c r="D6" t="s">
+        <v>11</v>
+      </c>
+      <c r="E6" t="s">
+        <v>12</v>
+      </c>
+      <c r="F6" t="s">
         <v>27</v>
       </c>
-      <c r="D6" t="s">
-        <v>12</v>
-      </c>
-      <c r="E6" t="s">
-        <v>13</v>
-      </c>
-      <c r="F6" t="s">
-        <v>28</v>
+      <c r="G6">
+        <v>0.6</v>
       </c>
       <c r="H6">
-        <v>0.6</v>
-      </c>
-      <c r="I6">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="I6" t="s">
+        <v>14</v>
       </c>
       <c r="J6" t="s">
+        <v>116</v>
+      </c>
+      <c r="K6">
         <v>15</v>
       </c>
-      <c r="L6">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.4">
+    </row>
+    <row r="7" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>1105</v>
       </c>
       <c r="B7" t="s">
+        <v>28</v>
+      </c>
+      <c r="C7" t="s">
         <v>29</v>
       </c>
-      <c r="C7" t="s">
-        <v>30</v>
-      </c>
       <c r="D7" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E7" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F7" t="s">
-        <v>28</v>
+        <v>27</v>
+      </c>
+      <c r="G7">
+        <v>0.4</v>
       </c>
       <c r="H7">
-        <v>0.4</v>
-      </c>
-      <c r="I7">
         <v>5</v>
       </c>
+      <c r="I7" t="s">
+        <v>18</v>
+      </c>
       <c r="J7" t="s">
-        <v>19</v>
-      </c>
-      <c r="L7">
+        <v>116</v>
+      </c>
+      <c r="K7">
         <v>20</v>
       </c>
     </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>1106</v>
       </c>
       <c r="B8" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C8" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D8" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E8" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F8" t="s">
-        <v>18</v>
+        <v>17</v>
+      </c>
+      <c r="G8">
+        <v>0.3</v>
       </c>
       <c r="H8">
-        <v>0.3</v>
-      </c>
-      <c r="I8">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="I8" t="s">
+        <v>14</v>
       </c>
       <c r="J8" t="s">
-        <v>15</v>
-      </c>
-      <c r="L8">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.4">
+        <v>116</v>
+      </c>
+      <c r="K8">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>1107</v>
       </c>
       <c r="B9" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C9" t="s">
+        <v>16</v>
+      </c>
+      <c r="D9" t="s">
+        <v>11</v>
+      </c>
+      <c r="E9" t="s">
+        <v>12</v>
+      </c>
+      <c r="F9" t="s">
         <v>17</v>
       </c>
-      <c r="D9" t="s">
-        <v>12</v>
-      </c>
-      <c r="E9" t="s">
-        <v>13</v>
-      </c>
-      <c r="F9" t="s">
+      <c r="G9">
+        <v>0.3</v>
+      </c>
+      <c r="H9">
+        <v>5</v>
+      </c>
+      <c r="I9" t="s">
         <v>18</v>
       </c>
-      <c r="H9">
-        <v>0.3</v>
-      </c>
-      <c r="I9">
-        <v>5</v>
-      </c>
       <c r="J9" t="s">
-        <v>19</v>
-      </c>
-      <c r="L9">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.4">
+        <v>116</v>
+      </c>
+      <c r="K9">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>1108</v>
       </c>
       <c r="B10" t="s">
+        <v>32</v>
+      </c>
+      <c r="C10" t="s">
+        <v>20</v>
+      </c>
+      <c r="D10" t="s">
+        <v>11</v>
+      </c>
+      <c r="E10" t="s">
+        <v>12</v>
+      </c>
+      <c r="F10" t="s">
         <v>33</v>
       </c>
-      <c r="C10" t="s">
+      <c r="G10">
+        <v>0.5</v>
+      </c>
+      <c r="H10">
+        <v>4</v>
+      </c>
+      <c r="I10" t="s">
         <v>21</v>
       </c>
-      <c r="D10" t="s">
-        <v>12</v>
-      </c>
-      <c r="E10" t="s">
-        <v>13</v>
-      </c>
-      <c r="F10" t="s">
-        <v>34</v>
-      </c>
-      <c r="H10">
-        <v>0.5</v>
-      </c>
-      <c r="I10">
-        <v>4</v>
-      </c>
       <c r="J10" t="s">
-        <v>22</v>
-      </c>
-      <c r="L10">
+        <v>116</v>
+      </c>
+      <c r="K10">
         <v>20</v>
       </c>
     </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>1109</v>
       </c>
       <c r="B11" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C11" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D11" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E11" t="s">
+        <v>12</v>
+      </c>
+      <c r="F11" t="s">
         <v>13</v>
       </c>
-      <c r="F11" t="s">
+      <c r="G11">
+        <v>0.6</v>
+      </c>
+      <c r="H11">
+        <v>0</v>
+      </c>
+      <c r="I11" t="s">
         <v>14</v>
       </c>
-      <c r="H11">
-        <v>0.6</v>
-      </c>
-      <c r="I11">
-        <v>0</v>
-      </c>
       <c r="J11" t="s">
+        <v>116</v>
+      </c>
+      <c r="K11">
         <v>15</v>
       </c>
-      <c r="L11">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.4">
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>5100</v>
       </c>
       <c r="B12" t="s">
+        <v>35</v>
+      </c>
+      <c r="C12" t="s">
         <v>36</v>
       </c>
-      <c r="C12" t="s">
-        <v>37</v>
-      </c>
       <c r="D12" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E12" t="s">
+        <v>12</v>
+      </c>
+      <c r="F12" t="s">
         <v>13</v>
       </c>
-      <c r="F12" t="s">
+      <c r="G12">
+        <v>0.5</v>
+      </c>
+      <c r="H12">
+        <v>0</v>
+      </c>
+      <c r="I12" t="s">
         <v>14</v>
       </c>
-      <c r="G12" t="s">
-        <v>38</v>
-      </c>
-      <c r="H12">
-        <v>0.5</v>
-      </c>
-      <c r="I12">
-        <v>0</v>
-      </c>
-      <c r="J12" t="s">
-        <v>15</v>
-      </c>
-      <c r="L12">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="K12">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>5101</v>
       </c>
       <c r="B13" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="C13" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="D13" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E13" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F13" t="s">
-        <v>28</v>
-      </c>
-      <c r="G13" t="s">
-        <v>41</v>
+        <v>27</v>
+      </c>
+      <c r="G13">
+        <v>0.7</v>
       </c>
       <c r="H13">
-        <v>0.7</v>
-      </c>
-      <c r="I13">
-        <v>0</v>
-      </c>
-      <c r="J13" t="s">
-        <v>15</v>
-      </c>
-      <c r="L13">
+        <v>0</v>
+      </c>
+      <c r="I13" t="s">
+        <v>14</v>
+      </c>
+      <c r="K13">
         <v>5</v>
       </c>
     </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>5102</v>
       </c>
       <c r="B14" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="C14" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="D14" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E14" t="s">
+        <v>12</v>
+      </c>
+      <c r="F14" t="s">
         <v>13</v>
       </c>
-      <c r="F14" t="s">
-        <v>14</v>
-      </c>
-      <c r="G14" t="s">
-        <v>44</v>
+      <c r="G14">
+        <v>0.5</v>
       </c>
       <c r="H14">
-        <v>0.5</v>
-      </c>
-      <c r="I14">
         <v>4</v>
       </c>
-      <c r="J14" t="s">
-        <v>22</v>
-      </c>
-      <c r="L14">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="I14" t="s">
+        <v>21</v>
+      </c>
+      <c r="K14">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>5103</v>
       </c>
       <c r="B15" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="C15" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="D15" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E15" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F15" t="s">
+        <v>17</v>
+      </c>
+      <c r="G15">
+        <v>0.3</v>
+      </c>
+      <c r="H15">
+        <v>5</v>
+      </c>
+      <c r="I15" t="s">
         <v>18</v>
       </c>
-      <c r="G15" t="s">
-        <v>47</v>
-      </c>
-      <c r="H15">
-        <v>0.3</v>
-      </c>
-      <c r="I15">
+      <c r="K15">
         <v>5</v>
       </c>
-      <c r="J15" t="s">
-        <v>19</v>
-      </c>
-      <c r="L15">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.4">
+    </row>
+    <row r="16" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>5104</v>
       </c>
       <c r="B16" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="C16" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="D16" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E16" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="F16" t="s">
+        <v>13</v>
+      </c>
+      <c r="G16">
+        <v>0.5</v>
+      </c>
+      <c r="H16">
+        <v>0</v>
+      </c>
+      <c r="I16" t="s">
         <v>14</v>
       </c>
-      <c r="G16" t="s">
+      <c r="K16">
         <v>50</v>
       </c>
-      <c r="H16">
-        <v>0.5</v>
-      </c>
-      <c r="I16">
-        <v>0</v>
-      </c>
-      <c r="J16" t="s">
-        <v>15</v>
-      </c>
-      <c r="L16">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.4">
+    </row>
+    <row r="17" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A17">
         <v>5105</v>
       </c>
       <c r="B17" t="s">
-        <v>51</v>
+        <v>45</v>
       </c>
       <c r="C17" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
       <c r="D17" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E17" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="F17" t="s">
-        <v>28</v>
-      </c>
-      <c r="G17" t="s">
-        <v>53</v>
+        <v>27</v>
+      </c>
+      <c r="G17">
+        <v>1</v>
       </c>
       <c r="H17">
-        <v>1</v>
-      </c>
-      <c r="I17">
         <v>5</v>
       </c>
-      <c r="J17" t="s">
-        <v>19</v>
-      </c>
-      <c r="L17">
+      <c r="I17" t="s">
+        <v>18</v>
+      </c>
+      <c r="K17">
         <v>15</v>
       </c>
     </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A18">
         <v>5106</v>
       </c>
       <c r="B18" t="s">
-        <v>57</v>
+        <v>50</v>
       </c>
       <c r="C18" t="s">
-        <v>66</v>
+        <v>58</v>
       </c>
       <c r="D18" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>59</v>
+        <v>52</v>
       </c>
       <c r="F18" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="G18" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="H18">
+        <v>0</v>
+      </c>
+      <c r="I18" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="G18" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="H18" s="2">
-        <v>0.5</v>
-      </c>
-      <c r="I18">
-        <v>0</v>
-      </c>
-      <c r="J18" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="K18" s="2"/>
-      <c r="L18" s="2">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="J18" s="2"/>
+      <c r="K18" s="2">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A19">
         <v>5107</v>
       </c>
       <c r="B19" t="s">
-        <v>58</v>
+        <v>51</v>
       </c>
       <c r="C19" t="s">
-        <v>67</v>
+        <v>59</v>
       </c>
       <c r="D19" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E19" s="2" t="s">
-        <v>59</v>
+        <v>52</v>
       </c>
       <c r="F19" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="G19" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="H19" s="2">
+        <v>27</v>
+      </c>
+      <c r="G19" s="2">
         <v>1</v>
       </c>
-      <c r="I19">
+      <c r="H19">
         <v>5</v>
       </c>
-      <c r="J19" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="K19" s="2"/>
-      <c r="L19" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="I19" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="J19" s="2"/>
+      <c r="K19" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A20">
         <v>5108</v>
       </c>
       <c r="B20" t="s">
-        <v>60</v>
+        <v>53</v>
       </c>
       <c r="C20" t="s">
-        <v>61</v>
+        <v>54</v>
       </c>
       <c r="D20" t="s">
-        <v>62</v>
+        <v>55</v>
       </c>
       <c r="E20" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F20" t="s">
-        <v>63</v>
-      </c>
-      <c r="G20" t="s">
-        <v>64</v>
+        <v>56</v>
+      </c>
+      <c r="G20">
+        <v>0.5</v>
       </c>
       <c r="H20">
-        <v>0.5</v>
-      </c>
-      <c r="I20">
         <v>5</v>
       </c>
-      <c r="J20" t="s">
-        <v>65</v>
-      </c>
-      <c r="L20">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="21" spans="1:12" s="3" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="I20" t="s">
+        <v>57</v>
+      </c>
+      <c r="K20">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A21" s="3">
         <v>5109</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>99</v>
+        <v>91</v>
       </c>
       <c r="C21" s="3" t="s">
-        <v>68</v>
+        <v>60</v>
       </c>
       <c r="D21" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E21" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="F21" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="F21" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="H21" s="3">
-        <v>0.5</v>
-      </c>
-      <c r="I21">
-        <v>0</v>
-      </c>
-      <c r="J21" s="3" t="s">
-        <v>117</v>
-      </c>
-      <c r="L21" s="3">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="22" spans="1:12" s="3" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="G21" s="3">
+        <v>0.5</v>
+      </c>
+      <c r="H21">
+        <v>0</v>
+      </c>
+      <c r="I21" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="K21" s="3">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A22" s="3">
         <v>5110</v>
       </c>
       <c r="B22" s="3" t="s">
-        <v>100</v>
+        <v>92</v>
       </c>
       <c r="C22" s="3" t="s">
-        <v>69</v>
+        <v>61</v>
       </c>
       <c r="D22" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E22" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F22" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="H22" s="3">
-        <v>0.5</v>
-      </c>
-      <c r="I22">
-        <v>0</v>
-      </c>
-      <c r="J22" s="3" t="s">
-        <v>117</v>
-      </c>
-      <c r="L22" s="3">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="23" spans="1:12" s="3" customFormat="1" x14ac:dyDescent="0.4">
+        <v>17</v>
+      </c>
+      <c r="G22" s="3">
+        <v>0.5</v>
+      </c>
+      <c r="H22">
+        <v>0</v>
+      </c>
+      <c r="I22" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="K22" s="3">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A23" s="3">
         <v>5111</v>
       </c>
       <c r="B23" s="3" t="s">
-        <v>108</v>
+        <v>100</v>
       </c>
       <c r="C23" s="3" t="s">
-        <v>70</v>
+        <v>62</v>
       </c>
       <c r="D23" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E23" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="F23" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="F23" s="3" t="s">
+      <c r="G23" s="3">
+        <v>0.5</v>
+      </c>
+      <c r="H23">
+        <v>0</v>
+      </c>
+      <c r="I23" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="H23" s="3">
-        <v>0.5</v>
-      </c>
-      <c r="I23">
-        <v>0</v>
-      </c>
-      <c r="J23" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="L23" s="3">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="24" spans="1:12" s="3" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="K23" s="3">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A24" s="3">
         <v>5112</v>
       </c>
       <c r="B24" s="3" t="s">
-        <v>108</v>
+        <v>100</v>
       </c>
       <c r="C24" s="3" t="s">
-        <v>71</v>
+        <v>63</v>
       </c>
       <c r="D24" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E24" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F24" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="H24" s="3">
-        <v>0.5</v>
-      </c>
-      <c r="I24">
-        <v>0</v>
-      </c>
-      <c r="J24" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="L24" s="3">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="25" spans="1:12" s="3" customFormat="1" x14ac:dyDescent="0.4">
+        <v>17</v>
+      </c>
+      <c r="G24" s="3">
+        <v>0.5</v>
+      </c>
+      <c r="H24">
+        <v>0</v>
+      </c>
+      <c r="I24" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="K24" s="3">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A25" s="3">
         <v>5113</v>
       </c>
       <c r="B25" s="3" t="s">
-        <v>91</v>
+        <v>83</v>
       </c>
       <c r="C25" s="3" t="s">
-        <v>72</v>
+        <v>64</v>
       </c>
       <c r="D25" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E25" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F25" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="H25" s="3">
-        <v>0.5</v>
-      </c>
-      <c r="I25">
-        <v>0</v>
-      </c>
-      <c r="J25" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="L25" s="3">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="26" spans="1:12" s="3" customFormat="1" x14ac:dyDescent="0.4">
+        <v>27</v>
+      </c>
+      <c r="G25" s="3">
+        <v>0.5</v>
+      </c>
+      <c r="H25">
+        <v>0</v>
+      </c>
+      <c r="I25" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="K25" s="3">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A26" s="3">
         <v>5114</v>
       </c>
       <c r="B26" s="3" t="s">
-        <v>101</v>
+        <v>93</v>
       </c>
       <c r="C26" s="3" t="s">
-        <v>73</v>
+        <v>65</v>
       </c>
       <c r="D26" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E26" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F26" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="H26" s="3">
-        <v>0.5</v>
-      </c>
-      <c r="I26">
-        <v>0</v>
-      </c>
-      <c r="J26" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="L26" s="3">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="27" spans="1:12" s="3" customFormat="1" x14ac:dyDescent="0.4">
+        <v>27</v>
+      </c>
+      <c r="G26" s="3">
+        <v>0.5</v>
+      </c>
+      <c r="H26">
+        <v>0</v>
+      </c>
+      <c r="I26" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="K26" s="3">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="27" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A27" s="3">
         <v>5115</v>
       </c>
       <c r="B27" s="3" t="s">
-        <v>109</v>
+        <v>101</v>
       </c>
       <c r="C27" s="3" t="s">
-        <v>74</v>
+        <v>66</v>
       </c>
       <c r="D27" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E27" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F27" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="H27" s="3">
-        <v>0.5</v>
-      </c>
-      <c r="I27">
-        <v>0</v>
-      </c>
-      <c r="J27" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="L27" s="3">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="28" spans="1:12" s="3" customFormat="1" x14ac:dyDescent="0.4">
+        <v>17</v>
+      </c>
+      <c r="G27" s="3">
+        <v>0.5</v>
+      </c>
+      <c r="H27">
+        <v>0</v>
+      </c>
+      <c r="I27" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="K27" s="3">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="28" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A28" s="3">
         <v>5116</v>
       </c>
       <c r="B28" s="3" t="s">
-        <v>92</v>
+        <v>84</v>
       </c>
       <c r="C28" s="3" t="s">
-        <v>75</v>
+        <v>67</v>
       </c>
       <c r="D28" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E28" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F28" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="H28" s="3">
-        <v>0.5</v>
-      </c>
-      <c r="I28">
-        <v>0</v>
-      </c>
-      <c r="J28" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="L28" s="3">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="29" spans="1:12" s="3" customFormat="1" x14ac:dyDescent="0.4">
+        <v>17</v>
+      </c>
+      <c r="G28" s="3">
+        <v>0.5</v>
+      </c>
+      <c r="H28">
+        <v>0</v>
+      </c>
+      <c r="I28" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="K28" s="3">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="29" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A29" s="3">
         <v>5117</v>
       </c>
       <c r="B29" s="3" t="s">
-        <v>102</v>
+        <v>94</v>
       </c>
       <c r="C29" s="3" t="s">
-        <v>76</v>
+        <v>68</v>
       </c>
       <c r="D29" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E29" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F29" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="H29" s="3">
-        <v>0.5</v>
-      </c>
-      <c r="I29">
-        <v>0</v>
-      </c>
-      <c r="J29" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="L29" s="3">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="30" spans="1:12" s="3" customFormat="1" x14ac:dyDescent="0.4">
+        <v>33</v>
+      </c>
+      <c r="G29" s="3">
+        <v>0.5</v>
+      </c>
+      <c r="H29">
+        <v>0</v>
+      </c>
+      <c r="I29" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="K29" s="3">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="30" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A30" s="3">
         <v>5118</v>
       </c>
       <c r="B30" s="3" t="s">
-        <v>93</v>
+        <v>85</v>
       </c>
       <c r="C30" s="3" t="s">
-        <v>77</v>
+        <v>69</v>
       </c>
       <c r="D30" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E30" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="F30" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="F30" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="H30" s="3">
-        <v>0.5</v>
-      </c>
-      <c r="I30">
+      <c r="G30" s="3">
+        <v>0.5</v>
+      </c>
+      <c r="H30">
         <v>5</v>
       </c>
-      <c r="J30" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="L30" s="3">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="31" spans="1:12" s="3" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="I30" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="K30" s="3">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="31" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A31" s="3">
         <v>5119</v>
       </c>
       <c r="B31" s="3" t="s">
-        <v>103</v>
+        <v>95</v>
       </c>
       <c r="C31" s="3" t="s">
-        <v>78</v>
+        <v>70</v>
       </c>
       <c r="D31" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E31" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="F31" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="F31" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="H31" s="3">
-        <v>0.5</v>
-      </c>
-      <c r="I31">
+      <c r="G31" s="3">
+        <v>0.5</v>
+      </c>
+      <c r="H31">
         <v>5</v>
       </c>
-      <c r="J31" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="L31" s="3">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="32" spans="1:12" s="3" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="I31" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="K31" s="3">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="32" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A32" s="3">
         <v>5120</v>
       </c>
       <c r="B32" s="3" t="s">
-        <v>94</v>
+        <v>86</v>
       </c>
       <c r="C32" s="3" t="s">
-        <v>79</v>
+        <v>71</v>
       </c>
       <c r="D32" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E32" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F32" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="H32" s="3">
-        <v>0.5</v>
-      </c>
-      <c r="I32">
+        <v>27</v>
+      </c>
+      <c r="G32" s="3">
+        <v>0.5</v>
+      </c>
+      <c r="H32">
         <v>5</v>
       </c>
-      <c r="J32" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="L32" s="3">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="33" spans="1:12" s="3" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="I32" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="K32" s="3">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="33" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A33" s="3">
         <v>5121</v>
       </c>
       <c r="B33" s="3" t="s">
-        <v>95</v>
+        <v>87</v>
       </c>
       <c r="C33" s="3" t="s">
-        <v>80</v>
+        <v>72</v>
       </c>
       <c r="D33" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E33" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="F33" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="F33" s="3" t="s">
+      <c r="G33" s="3">
+        <v>0.5</v>
+      </c>
+      <c r="H33">
+        <v>0</v>
+      </c>
+      <c r="I33" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="H33" s="3">
-        <v>0.5</v>
-      </c>
-      <c r="I33">
-        <v>0</v>
-      </c>
-      <c r="J33" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="L33" s="3">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="34" spans="1:12" s="3" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="K33" s="3">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="34" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A34" s="3">
         <v>5122</v>
       </c>
       <c r="B34" s="3" t="s">
-        <v>104</v>
+        <v>96</v>
       </c>
       <c r="C34" s="3" t="s">
-        <v>81</v>
+        <v>73</v>
       </c>
       <c r="D34" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E34" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F34" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="H34" s="3">
-        <v>0.5</v>
-      </c>
-      <c r="I34">
-        <v>0</v>
-      </c>
-      <c r="J34" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="L34" s="3">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="35" spans="1:12" s="3" customFormat="1" x14ac:dyDescent="0.4">
+        <v>17</v>
+      </c>
+      <c r="G34" s="3">
+        <v>0.5</v>
+      </c>
+      <c r="H34">
+        <v>0</v>
+      </c>
+      <c r="I34" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="K34" s="3">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="35" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A35" s="3">
         <v>5123</v>
       </c>
       <c r="B35" s="3" t="s">
-        <v>110</v>
+        <v>102</v>
       </c>
       <c r="C35" s="3" t="s">
-        <v>82</v>
+        <v>74</v>
       </c>
       <c r="D35" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E35" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="F35" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="F35" s="3" t="s">
+      <c r="G35" s="3">
+        <v>0.5</v>
+      </c>
+      <c r="H35">
+        <v>0</v>
+      </c>
+      <c r="I35" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="H35" s="3">
-        <v>0.5</v>
-      </c>
-      <c r="I35">
-        <v>0</v>
-      </c>
-      <c r="J35" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="L35" s="3">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="36" spans="1:12" s="3" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="K35" s="3">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="36" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A36" s="3">
         <v>5124</v>
       </c>
       <c r="B36" s="3" t="s">
-        <v>114</v>
+        <v>106</v>
       </c>
       <c r="C36" s="3" t="s">
-        <v>83</v>
+        <v>75</v>
       </c>
       <c r="D36" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E36" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F36" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="H36" s="3">
-        <v>0.5</v>
-      </c>
-      <c r="I36">
+        <v>27</v>
+      </c>
+      <c r="G36" s="3">
+        <v>0.5</v>
+      </c>
+      <c r="H36">
         <v>5</v>
       </c>
-      <c r="J36" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="L36" s="3">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="37" spans="1:12" s="3" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="I36" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="K36" s="3">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="37" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A37" s="3">
         <v>5125</v>
       </c>
       <c r="B37" s="3" t="s">
-        <v>96</v>
+        <v>88</v>
       </c>
       <c r="C37" s="3" t="s">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="D37" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E37" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="F37" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="F37" s="4" t="s">
+      <c r="G37" s="3">
+        <v>0.5</v>
+      </c>
+      <c r="H37">
+        <v>0</v>
+      </c>
+      <c r="I37" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="H37" s="3">
-        <v>0.5</v>
-      </c>
-      <c r="I37">
-        <v>0</v>
-      </c>
-      <c r="J37" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="L37" s="3">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="38" spans="1:12" s="3" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="K37" s="3">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="38" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A38" s="3">
         <v>5126</v>
       </c>
       <c r="B38" s="3" t="s">
-        <v>105</v>
+        <v>97</v>
       </c>
       <c r="C38" s="3" t="s">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="D38" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E38" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F38" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="H38" s="3">
-        <v>0.5</v>
-      </c>
-      <c r="I38">
-        <v>0</v>
-      </c>
-      <c r="J38" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="L38" s="3">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="39" spans="1:12" s="3" customFormat="1" x14ac:dyDescent="0.4">
+        <v>27</v>
+      </c>
+      <c r="G38" s="3">
+        <v>0.5</v>
+      </c>
+      <c r="H38">
+        <v>0</v>
+      </c>
+      <c r="I38" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="K38" s="3">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="39" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A39" s="3">
         <v>5127</v>
       </c>
       <c r="B39" s="3" t="s">
-        <v>111</v>
+        <v>103</v>
       </c>
       <c r="C39" s="3" t="s">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="D39" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E39" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F39" s="3" t="s">
-        <v>63</v>
-      </c>
-      <c r="H39" s="3">
-        <v>0.5</v>
-      </c>
-      <c r="I39">
-        <v>0</v>
-      </c>
-      <c r="J39" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="L39" s="3">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="40" spans="1:12" s="3" customFormat="1" x14ac:dyDescent="0.4">
+        <v>56</v>
+      </c>
+      <c r="G39" s="3">
+        <v>0.5</v>
+      </c>
+      <c r="H39">
+        <v>0</v>
+      </c>
+      <c r="I39" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="K39" s="3">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="40" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A40" s="3">
         <v>5128</v>
       </c>
       <c r="B40" s="3" t="s">
-        <v>97</v>
+        <v>89</v>
       </c>
       <c r="C40" s="3" t="s">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="D40" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E40" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F40" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="H40" s="3">
-        <v>0.5</v>
-      </c>
-      <c r="I40">
+        <v>33</v>
+      </c>
+      <c r="G40" s="3">
+        <v>0.5</v>
+      </c>
+      <c r="H40">
         <v>5</v>
       </c>
-      <c r="J40" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="L40" s="3">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="41" spans="1:12" s="3" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="I40" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="K40" s="3">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="41" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A41" s="3">
         <v>5129</v>
       </c>
       <c r="B41" s="3" t="s">
-        <v>106</v>
+        <v>98</v>
       </c>
       <c r="C41" s="3" t="s">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="D41" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E41" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="F41" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="F41" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="H41" s="3">
-        <v>0.5</v>
-      </c>
-      <c r="I41">
+      <c r="G41" s="3">
+        <v>0.5</v>
+      </c>
+      <c r="H41">
         <v>5</v>
       </c>
-      <c r="J41" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="L41" s="3">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="42" spans="1:12" s="3" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="I41" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="K41" s="3">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="42" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A42" s="3">
         <v>5130</v>
       </c>
       <c r="B42" s="3" t="s">
-        <v>112</v>
+        <v>104</v>
       </c>
       <c r="C42" s="3" t="s">
-        <v>89</v>
+        <v>81</v>
       </c>
       <c r="D42" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E42" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="F42" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="F42" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="H42" s="3">
-        <v>0.5</v>
-      </c>
-      <c r="I42">
+      <c r="G42" s="3">
+        <v>0.5</v>
+      </c>
+      <c r="H42">
         <v>5</v>
       </c>
-      <c r="J42" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="L42" s="3">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="43" spans="1:12" s="3" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="I42" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="K42" s="3">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="43" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A43" s="3">
         <v>5131</v>
       </c>
       <c r="B43" s="3" t="s">
-        <v>115</v>
+        <v>107</v>
       </c>
       <c r="C43" s="3" t="s">
-        <v>90</v>
+        <v>82</v>
       </c>
       <c r="D43" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E43" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F43" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="H43" s="3">
-        <v>0.5</v>
-      </c>
-      <c r="I43">
+        <v>27</v>
+      </c>
+      <c r="G43" s="3">
+        <v>0.5</v>
+      </c>
+      <c r="H43">
         <v>5</v>
       </c>
-      <c r="J43" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="L43" s="3">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="44" spans="1:12" s="3" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="I43" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="K43" s="3">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="44" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A44" s="3">
         <v>5132</v>
       </c>
       <c r="B44" s="3" t="s">
-        <v>98</v>
+        <v>90</v>
       </c>
       <c r="C44" s="3" t="s">
-        <v>118</v>
+        <v>110</v>
       </c>
       <c r="D44" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E44" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="F44" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="F44" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="H44" s="3">
-        <v>0.5</v>
-      </c>
-      <c r="I44">
+      <c r="G44" s="3">
+        <v>0.5</v>
+      </c>
+      <c r="H44">
         <v>4</v>
       </c>
-      <c r="J44" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="L44" s="3">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="45" spans="1:12" s="3" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="I44" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="K44" s="3">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="45" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A45" s="3">
         <v>5133</v>
       </c>
       <c r="B45" s="3" t="s">
-        <v>107</v>
+        <v>99</v>
       </c>
       <c r="C45" s="3" t="s">
-        <v>119</v>
+        <v>111</v>
       </c>
       <c r="D45" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E45" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F45" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="G45" s="3">
+        <v>0.5</v>
+      </c>
+      <c r="H45">
+        <v>5</v>
+      </c>
+      <c r="I45" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="H45" s="3">
-        <v>0.5</v>
-      </c>
-      <c r="I45">
-        <v>5</v>
-      </c>
-      <c r="J45" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="L45" s="3">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="46" spans="1:12" s="3" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="K45" s="3">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="46" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A46" s="3">
         <v>5134</v>
       </c>
       <c r="B46" s="3" t="s">
-        <v>113</v>
+        <v>105</v>
       </c>
       <c r="C46" s="3" t="s">
-        <v>120</v>
+        <v>112</v>
       </c>
       <c r="D46" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E46" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="F46" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="F46" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="H46" s="3">
-        <v>0.5</v>
-      </c>
-      <c r="I46">
+      <c r="G46" s="3">
+        <v>0.5</v>
+      </c>
+      <c r="H46">
         <v>5</v>
       </c>
-      <c r="J46" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="L46" s="3">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="47" spans="1:12" s="3" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="I46" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="K46" s="3">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="47" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A47" s="3">
         <v>5135</v>
       </c>
       <c r="B47" s="3" t="s">
-        <v>116</v>
+        <v>108</v>
       </c>
       <c r="C47" s="3" t="s">
-        <v>121</v>
+        <v>113</v>
       </c>
       <c r="D47" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E47" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F47" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="H47" s="3">
-        <v>0.5</v>
-      </c>
-      <c r="I47">
+        <v>27</v>
+      </c>
+      <c r="G47" s="3">
+        <v>0.5</v>
+      </c>
+      <c r="H47">
         <v>4</v>
       </c>
-      <c r="J47" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="L47" s="3">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="48" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="I47" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="K47" s="3">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="48" spans="1:11" x14ac:dyDescent="0.3">
       <c r="F48" s="2"/>
     </row>
-    <row r="49" spans="6:6" x14ac:dyDescent="0.4">
+    <row r="49" spans="6:6" x14ac:dyDescent="0.3">
       <c r="F49" s="2"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:N47" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
+  <autoFilter ref="A1:M47" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/DesignDocs/VariableData/TubeStyle.xlsx
+++ b/DesignDocs/VariableData/TubeStyle.xlsx
@@ -15,7 +15,7 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$M$11</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$K$11</definedName>
   </definedNames>
   <calcPr calcId="152511"/>
   <extLst>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="36">
   <si>
     <t>cid</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -45,14 +45,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>grade</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>company</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>attackType</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -77,13 +69,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Weakness</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>WalkersWorkshop</t>
-  </si>
-  <si>
     <t>melee</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -96,9 +81,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>DSDC</t>
-  </si>
-  <si>
     <t>range</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -123,10 +105,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>gangster</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Style_HandBlade_We_00</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -135,9 +113,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>SmithsSmithy</t>
-  </si>
-  <si>
     <t>Style_We_Chain_00</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -151,10 +126,6 @@
   </si>
   <si>
     <t>Style_Bounce_We_01</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>SmithsSmithy</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -206,7 +177,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -222,27 +193,13 @@
       <charset val="129"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="맑은 고딕"/>
-      <family val="3"/>
-      <charset val="129"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="3">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF7030A0"/>
-        <bgColor indexed="64"/>
-      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -259,11 +216,8 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -580,10 +534,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:N13"/>
+  <dimension ref="A1:L11"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A6" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F14" sqref="F14"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="J1" sqref="J1:J1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
@@ -591,16 +545,15 @@
     <col min="2" max="2" width="23.69921875" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="19.59765625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="9.69921875" customWidth="1"/>
-    <col min="6" max="6" width="17.69921875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="16.5" customWidth="1"/>
-    <col min="9" max="9" width="16" customWidth="1"/>
-    <col min="10" max="10" width="14.3984375" customWidth="1"/>
-    <col min="11" max="11" width="11.3984375" customWidth="1"/>
-    <col min="12" max="12" width="10.19921875" customWidth="1"/>
-    <col min="13" max="13" width="9.59765625" customWidth="1"/>
+    <col min="5" max="5" width="16.5" customWidth="1"/>
+    <col min="7" max="7" width="16" customWidth="1"/>
+    <col min="8" max="8" width="14.3984375" customWidth="1"/>
+    <col min="9" max="9" width="11.3984375" customWidth="1"/>
+    <col min="10" max="10" width="10.19921875" customWidth="1"/>
+    <col min="11" max="11" width="9.59765625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -614,391 +567,319 @@
         <v>3</v>
       </c>
       <c r="E1" t="s">
+        <v>28</v>
+      </c>
+      <c r="F1" t="s">
+        <v>29</v>
+      </c>
+      <c r="G1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" t="s">
+      <c r="H1" t="s">
         <v>5</v>
-      </c>
-      <c r="G1" t="s">
-        <v>36</v>
-      </c>
-      <c r="H1" t="s">
-        <v>37</v>
       </c>
       <c r="I1" t="s">
         <v>6</v>
       </c>
       <c r="J1" t="s">
+        <v>25</v>
+      </c>
+      <c r="K1" t="s">
+        <v>26</v>
+      </c>
+      <c r="L1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="A2">
+        <v>1000</v>
+      </c>
+      <c r="B2" t="s">
         <v>7</v>
       </c>
-      <c r="K1" t="s">
+      <c r="C2" t="s">
         <v>8</v>
       </c>
-      <c r="L1" t="s">
+      <c r="D2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E2">
+        <v>0.3</v>
+      </c>
+      <c r="F2">
+        <v>0</v>
+      </c>
+      <c r="G2" t="s">
+        <v>10</v>
+      </c>
+      <c r="H2" t="s">
+        <v>35</v>
+      </c>
+      <c r="I2">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="A3">
+        <v>1001</v>
+      </c>
+      <c r="B3" t="s">
+        <v>11</v>
+      </c>
+      <c r="C3" t="s">
+        <v>12</v>
+      </c>
+      <c r="D3" t="s">
+        <v>9</v>
+      </c>
+      <c r="E3">
+        <v>0.3</v>
+      </c>
+      <c r="F3">
+        <v>5</v>
+      </c>
+      <c r="G3" t="s">
+        <v>13</v>
+      </c>
+      <c r="H3" t="s">
+        <v>35</v>
+      </c>
+      <c r="I3">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="A4">
+        <v>1002</v>
+      </c>
+      <c r="B4" t="s">
+        <v>14</v>
+      </c>
+      <c r="C4" t="s">
+        <v>15</v>
+      </c>
+      <c r="D4" t="s">
+        <v>9</v>
+      </c>
+      <c r="E4">
+        <v>0.5</v>
+      </c>
+      <c r="F4">
+        <v>4</v>
+      </c>
+      <c r="G4" t="s">
+        <v>16</v>
+      </c>
+      <c r="H4" t="s">
+        <v>35</v>
+      </c>
+      <c r="I4">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="A5">
+        <v>1003</v>
+      </c>
+      <c r="B5" t="s">
+        <v>17</v>
+      </c>
+      <c r="C5" t="s">
+        <v>18</v>
+      </c>
+      <c r="D5" t="s">
+        <v>9</v>
+      </c>
+      <c r="E5">
+        <v>0.7</v>
+      </c>
+      <c r="F5">
+        <v>0</v>
+      </c>
+      <c r="G5" t="s">
+        <v>10</v>
+      </c>
+      <c r="H5" t="s">
+        <v>35</v>
+      </c>
+      <c r="I5">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="A6">
+        <v>1004</v>
+      </c>
+      <c r="B6" t="s">
+        <v>19</v>
+      </c>
+      <c r="C6" t="s">
+        <v>20</v>
+      </c>
+      <c r="D6" t="s">
+        <v>9</v>
+      </c>
+      <c r="E6">
+        <v>0.6</v>
+      </c>
+      <c r="F6">
+        <v>0</v>
+      </c>
+      <c r="G6" t="s">
+        <v>10</v>
+      </c>
+      <c r="H6" t="s">
+        <v>35</v>
+      </c>
+      <c r="I6">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="A7">
+        <v>1005</v>
+      </c>
+      <c r="B7" t="s">
+        <v>21</v>
+      </c>
+      <c r="C7" t="s">
+        <v>22</v>
+      </c>
+      <c r="D7" t="s">
+        <v>9</v>
+      </c>
+      <c r="E7">
+        <v>0.4</v>
+      </c>
+      <c r="F7">
+        <v>5</v>
+      </c>
+      <c r="G7" t="s">
+        <v>13</v>
+      </c>
+      <c r="H7" t="s">
+        <v>35</v>
+      </c>
+      <c r="I7">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="A8">
+        <v>1006</v>
+      </c>
+      <c r="B8" t="s">
+        <v>30</v>
+      </c>
+      <c r="C8" t="s">
+        <v>32</v>
+      </c>
+      <c r="D8" t="s">
+        <v>9</v>
+      </c>
+      <c r="E8">
+        <v>0.3</v>
+      </c>
+      <c r="F8">
+        <v>0</v>
+      </c>
+      <c r="G8" t="s">
+        <v>10</v>
+      </c>
+      <c r="H8" t="s">
+        <v>35</v>
+      </c>
+      <c r="I8">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="A9">
+        <v>1007</v>
+      </c>
+      <c r="B9" t="s">
+        <v>23</v>
+      </c>
+      <c r="C9" t="s">
+        <v>12</v>
+      </c>
+      <c r="D9" t="s">
+        <v>9</v>
+      </c>
+      <c r="E9">
+        <v>0.3</v>
+      </c>
+      <c r="F9">
+        <v>5</v>
+      </c>
+      <c r="G9" t="s">
+        <v>13</v>
+      </c>
+      <c r="H9" t="s">
+        <v>35</v>
+      </c>
+      <c r="I9">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="A10">
+        <v>1008</v>
+      </c>
+      <c r="B10" t="s">
+        <v>24</v>
+      </c>
+      <c r="C10" t="s">
+        <v>15</v>
+      </c>
+      <c r="D10" t="s">
+        <v>9</v>
+      </c>
+      <c r="E10">
+        <v>0.5</v>
+      </c>
+      <c r="F10">
+        <v>4</v>
+      </c>
+      <c r="G10" t="s">
+        <v>16</v>
+      </c>
+      <c r="H10" t="s">
+        <v>35</v>
+      </c>
+      <c r="I10">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="A11">
+        <v>1009</v>
+      </c>
+      <c r="B11" t="s">
+        <v>31</v>
+      </c>
+      <c r="C11" t="s">
         <v>33</v>
       </c>
-      <c r="M1" t="s">
+      <c r="D11" t="s">
+        <v>9</v>
+      </c>
+      <c r="E11">
+        <v>0.5</v>
+      </c>
+      <c r="F11">
+        <v>0</v>
+      </c>
+      <c r="G11" t="s">
         <v>34</v>
       </c>
-      <c r="N1" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.4">
-      <c r="A2">
-        <v>1100</v>
-      </c>
-      <c r="B2" t="s">
-        <v>9</v>
-      </c>
-      <c r="C2" t="s">
-        <v>10</v>
-      </c>
-      <c r="D2" t="s">
-        <v>11</v>
-      </c>
-      <c r="E2" t="s">
-        <v>12</v>
-      </c>
-      <c r="F2" t="s">
-        <v>13</v>
-      </c>
-      <c r="G2">
-        <v>0.3</v>
-      </c>
-      <c r="H2">
-        <v>0</v>
-      </c>
-      <c r="I2" t="s">
-        <v>14</v>
-      </c>
-      <c r="J2" t="s">
-        <v>43</v>
-      </c>
-      <c r="K2">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.4">
-      <c r="A3">
-        <v>1101</v>
-      </c>
-      <c r="B3" t="s">
-        <v>15</v>
-      </c>
-      <c r="C3" t="s">
-        <v>16</v>
-      </c>
-      <c r="D3" t="s">
-        <v>11</v>
-      </c>
-      <c r="E3" t="s">
-        <v>12</v>
-      </c>
-      <c r="F3" t="s">
-        <v>17</v>
-      </c>
-      <c r="G3">
-        <v>0.3</v>
-      </c>
-      <c r="H3">
-        <v>5</v>
-      </c>
-      <c r="I3" t="s">
-        <v>18</v>
-      </c>
-      <c r="J3" t="s">
-        <v>43</v>
-      </c>
-      <c r="K3">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.4">
-      <c r="A4">
-        <v>1102</v>
-      </c>
-      <c r="B4" t="s">
-        <v>19</v>
-      </c>
-      <c r="C4" t="s">
-        <v>20</v>
-      </c>
-      <c r="D4" t="s">
-        <v>11</v>
-      </c>
-      <c r="E4" t="s">
-        <v>12</v>
-      </c>
-      <c r="F4" t="s">
-        <v>13</v>
-      </c>
-      <c r="G4">
-        <v>0.5</v>
-      </c>
-      <c r="H4">
-        <v>4</v>
-      </c>
-      <c r="I4" t="s">
-        <v>21</v>
-      </c>
-      <c r="J4" t="s">
-        <v>43</v>
-      </c>
-      <c r="K4">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.4">
-      <c r="A5">
-        <v>1103</v>
-      </c>
-      <c r="B5" t="s">
-        <v>22</v>
-      </c>
-      <c r="C5" t="s">
-        <v>23</v>
-      </c>
-      <c r="D5" t="s">
-        <v>11</v>
-      </c>
-      <c r="E5" t="s">
-        <v>24</v>
-      </c>
-      <c r="F5" t="s">
-        <v>17</v>
-      </c>
-      <c r="G5">
-        <v>0.7</v>
-      </c>
-      <c r="H5">
-        <v>0</v>
-      </c>
-      <c r="I5" t="s">
-        <v>14</v>
-      </c>
-      <c r="J5" t="s">
-        <v>43</v>
-      </c>
-      <c r="K5">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.4">
-      <c r="A6">
-        <v>1104</v>
-      </c>
-      <c r="B6" t="s">
-        <v>25</v>
-      </c>
-      <c r="C6" t="s">
-        <v>26</v>
-      </c>
-      <c r="D6" t="s">
-        <v>11</v>
-      </c>
-      <c r="E6" t="s">
-        <v>12</v>
-      </c>
-      <c r="F6" t="s">
-        <v>27</v>
-      </c>
-      <c r="G6">
-        <v>0.6</v>
-      </c>
-      <c r="H6">
-        <v>0</v>
-      </c>
-      <c r="I6" t="s">
-        <v>14</v>
-      </c>
-      <c r="J6" t="s">
-        <v>43</v>
-      </c>
-      <c r="K6">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.4">
-      <c r="A7">
-        <v>1105</v>
-      </c>
-      <c r="B7" t="s">
-        <v>28</v>
-      </c>
-      <c r="C7" t="s">
-        <v>29</v>
-      </c>
-      <c r="D7" t="s">
-        <v>11</v>
-      </c>
-      <c r="E7" t="s">
-        <v>12</v>
-      </c>
-      <c r="F7" t="s">
-        <v>27</v>
-      </c>
-      <c r="G7">
-        <v>0.4</v>
-      </c>
-      <c r="H7">
-        <v>5</v>
-      </c>
-      <c r="I7" t="s">
-        <v>18</v>
-      </c>
-      <c r="J7" t="s">
-        <v>43</v>
-      </c>
-      <c r="K7">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.4">
-      <c r="A8">
-        <v>1106</v>
-      </c>
-      <c r="B8" t="s">
-        <v>38</v>
-      </c>
-      <c r="C8" t="s">
-        <v>40</v>
-      </c>
-      <c r="D8" t="s">
-        <v>11</v>
-      </c>
-      <c r="E8" t="s">
-        <v>12</v>
-      </c>
-      <c r="F8" t="s">
-        <v>17</v>
-      </c>
-      <c r="G8">
-        <v>0.3</v>
-      </c>
-      <c r="H8">
-        <v>0</v>
-      </c>
-      <c r="I8" t="s">
-        <v>14</v>
-      </c>
-      <c r="J8" t="s">
-        <v>43</v>
-      </c>
-      <c r="K8">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.4">
-      <c r="A9">
-        <v>1107</v>
-      </c>
-      <c r="B9" t="s">
-        <v>30</v>
-      </c>
-      <c r="C9" t="s">
-        <v>16</v>
-      </c>
-      <c r="D9" t="s">
-        <v>11</v>
-      </c>
-      <c r="E9" t="s">
-        <v>12</v>
-      </c>
-      <c r="F9" t="s">
-        <v>17</v>
-      </c>
-      <c r="G9">
-        <v>0.3</v>
-      </c>
-      <c r="H9">
-        <v>5</v>
-      </c>
-      <c r="I9" t="s">
-        <v>18</v>
-      </c>
-      <c r="J9" t="s">
-        <v>43</v>
-      </c>
-      <c r="K9">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.4">
-      <c r="A10">
-        <v>1108</v>
-      </c>
-      <c r="B10" t="s">
-        <v>31</v>
-      </c>
-      <c r="C10" t="s">
-        <v>20</v>
-      </c>
-      <c r="D10" t="s">
-        <v>11</v>
-      </c>
-      <c r="E10" t="s">
-        <v>12</v>
-      </c>
-      <c r="F10" t="s">
-        <v>32</v>
-      </c>
-      <c r="G10">
-        <v>0.5</v>
-      </c>
-      <c r="H10">
-        <v>4</v>
-      </c>
-      <c r="I10" t="s">
-        <v>21</v>
-      </c>
-      <c r="J10" t="s">
-        <v>43</v>
-      </c>
-      <c r="K10">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.4">
-      <c r="A11">
-        <v>1109</v>
-      </c>
-      <c r="B11" t="s">
-        <v>39</v>
-      </c>
-      <c r="C11" t="s">
-        <v>41</v>
-      </c>
-      <c r="D11" t="s">
-        <v>11</v>
-      </c>
-      <c r="E11" t="s">
-        <v>12</v>
-      </c>
-      <c r="F11" t="s">
-        <v>32</v>
-      </c>
-      <c r="G11">
-        <v>0.5</v>
-      </c>
-      <c r="H11">
-        <v>0</v>
-      </c>
-      <c r="I11" t="s">
-        <v>42</v>
-      </c>
-      <c r="J11" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.4">
-      <c r="F12" s="1"/>
-    </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.4">
-      <c r="F13" s="1"/>
+      <c r="H11" t="s">
+        <v>35</v>
+      </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:M11"/>
+  <autoFilter ref="A1:K11"/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/DesignDocs/VariableData/TubeStyle.xlsx
+++ b/DesignDocs/VariableData/TubeStyle.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="37">
   <si>
     <t>cid</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -57,10 +57,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Style_Melee_We_00</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>주먹질</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -73,10 +69,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Style_Range_We_00</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>사격</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -85,10 +77,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Style_Bounce_We_00</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>투척</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -97,38 +85,18 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Style_Tackle_Ga_00</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>태클</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Style_HandBlade_We_00</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>수도</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Style_We_Chain_00</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>체인</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Style_Range_We_01</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Style_Bounce_We_01</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>combo</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -149,14 +117,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Style_Melee_We_01</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Style_Melee_We_02</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>훅</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -170,6 +130,50 @@
   </si>
   <si>
     <t>Mid</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Punch</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Gun Shot</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Throwing</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Teckle</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Hand Blade</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Chain</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Hook</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Sniping</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>정밀사격</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Throwing</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Uppercut</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -537,7 +541,7 @@
   <dimension ref="A1:L11"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="J1" sqref="J1:J1048576"/>
+      <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
@@ -567,10 +571,10 @@
         <v>3</v>
       </c>
       <c r="E1" t="s">
-        <v>28</v>
+        <v>20</v>
       </c>
       <c r="F1" t="s">
-        <v>29</v>
+        <v>21</v>
       </c>
       <c r="G1" t="s">
         <v>4</v>
@@ -582,13 +586,13 @@
         <v>6</v>
       </c>
       <c r="J1" t="s">
-        <v>25</v>
+        <v>17</v>
       </c>
       <c r="K1" t="s">
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="L1" t="s">
-        <v>27</v>
+        <v>19</v>
       </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.4">
@@ -596,13 +600,13 @@
         <v>1000</v>
       </c>
       <c r="B2" t="s">
+        <v>26</v>
+      </c>
+      <c r="C2" t="s">
         <v>7</v>
       </c>
-      <c r="C2" t="s">
-        <v>8</v>
-      </c>
       <c r="D2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E2">
         <v>0.3</v>
@@ -611,10 +615,10 @@
         <v>0</v>
       </c>
       <c r="G2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="H2" t="s">
-        <v>35</v>
+        <v>25</v>
       </c>
       <c r="I2">
         <v>10</v>
@@ -625,13 +629,13 @@
         <v>1001</v>
       </c>
       <c r="B3" t="s">
-        <v>11</v>
+        <v>27</v>
       </c>
       <c r="C3" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="D3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E3">
         <v>0.3</v>
@@ -640,10 +644,10 @@
         <v>5</v>
       </c>
       <c r="G3" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="H3" t="s">
-        <v>35</v>
+        <v>25</v>
       </c>
       <c r="I3">
         <v>10</v>
@@ -654,13 +658,13 @@
         <v>1002</v>
       </c>
       <c r="B4" t="s">
-        <v>14</v>
+        <v>28</v>
       </c>
       <c r="C4" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="D4" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E4">
         <v>0.5</v>
@@ -669,10 +673,10 @@
         <v>4</v>
       </c>
       <c r="G4" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="H4" t="s">
-        <v>35</v>
+        <v>25</v>
       </c>
       <c r="I4">
         <v>20</v>
@@ -683,13 +687,13 @@
         <v>1003</v>
       </c>
       <c r="B5" t="s">
-        <v>17</v>
+        <v>29</v>
       </c>
       <c r="C5" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="D5" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E5">
         <v>0.7</v>
@@ -698,10 +702,10 @@
         <v>0</v>
       </c>
       <c r="G5" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="H5" t="s">
-        <v>35</v>
+        <v>25</v>
       </c>
       <c r="I5">
         <v>40</v>
@@ -712,13 +716,13 @@
         <v>1004</v>
       </c>
       <c r="B6" t="s">
-        <v>19</v>
+        <v>30</v>
       </c>
       <c r="C6" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="D6" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E6">
         <v>0.6</v>
@@ -727,10 +731,10 @@
         <v>0</v>
       </c>
       <c r="G6" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="H6" t="s">
-        <v>35</v>
+        <v>25</v>
       </c>
       <c r="I6">
         <v>15</v>
@@ -741,13 +745,13 @@
         <v>1005</v>
       </c>
       <c r="B7" t="s">
-        <v>21</v>
+        <v>31</v>
       </c>
       <c r="C7" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="D7" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E7">
         <v>0.4</v>
@@ -756,10 +760,10 @@
         <v>5</v>
       </c>
       <c r="G7" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="H7" t="s">
-        <v>35</v>
+        <v>25</v>
       </c>
       <c r="I7">
         <v>20</v>
@@ -770,13 +774,13 @@
         <v>1006</v>
       </c>
       <c r="B8" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="C8" t="s">
-        <v>32</v>
+        <v>22</v>
       </c>
       <c r="D8" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E8">
         <v>0.3</v>
@@ -785,10 +789,10 @@
         <v>0</v>
       </c>
       <c r="G8" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="H8" t="s">
-        <v>35</v>
+        <v>25</v>
       </c>
       <c r="I8">
         <v>10</v>
@@ -799,13 +803,13 @@
         <v>1007</v>
       </c>
       <c r="B9" t="s">
-        <v>23</v>
+        <v>33</v>
       </c>
       <c r="C9" t="s">
-        <v>12</v>
+        <v>34</v>
       </c>
       <c r="D9" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E9">
         <v>0.3</v>
@@ -814,10 +818,10 @@
         <v>5</v>
       </c>
       <c r="G9" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="H9" t="s">
-        <v>35</v>
+        <v>25</v>
       </c>
       <c r="I9">
         <v>10</v>
@@ -828,13 +832,13 @@
         <v>1008</v>
       </c>
       <c r="B10" t="s">
-        <v>24</v>
+        <v>35</v>
       </c>
       <c r="C10" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="D10" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E10">
         <v>0.5</v>
@@ -843,10 +847,10 @@
         <v>4</v>
       </c>
       <c r="G10" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="H10" t="s">
-        <v>35</v>
+        <v>25</v>
       </c>
       <c r="I10">
         <v>20</v>
@@ -857,13 +861,13 @@
         <v>1009</v>
       </c>
       <c r="B11" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="C11" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="D11" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E11">
         <v>0.5</v>
@@ -872,10 +876,13 @@
         <v>0</v>
       </c>
       <c r="G11" t="s">
-        <v>34</v>
+        <v>24</v>
       </c>
       <c r="H11" t="s">
-        <v>35</v>
+        <v>25</v>
+      </c>
+      <c r="I11">
+        <v>20</v>
       </c>
     </row>
   </sheetData>

--- a/DesignDocs/VariableData/TubeStyle.xlsx
+++ b/DesignDocs/VariableData/TubeStyle.xlsx
@@ -15,7 +15,7 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$K$11</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$J$13</definedName>
   </definedNames>
   <calcPr calcId="152511"/>
   <extLst>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="44">
   <si>
     <t>cid</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -57,10 +57,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>주먹질</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>style</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -109,18 +105,10 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>motionDelay</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>range</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>훅</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>어퍼컷</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -133,10 +121,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Punch</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Gun Shot</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -157,7 +141,27 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Hook</t>
+    <t>정밀사격</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Throwing</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Uppercut</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Karate Punch</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>정권지르기</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>잽</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -165,15 +169,39 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>정밀사격</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Throwing</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Uppercut</t>
+    <t>스트레이트</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Karate Straight</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>중단지르기</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Boxing Punch</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Karate Hand Blade</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Boxing Straight</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Boxing Uppercut</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>melee</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Mid</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -538,10 +566,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L11"/>
+  <dimension ref="A1:K16"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
+      <selection activeCell="K7" sqref="K7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
@@ -549,15 +577,14 @@
     <col min="2" max="2" width="23.69921875" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="19.59765625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="9.69921875" customWidth="1"/>
-    <col min="5" max="5" width="16.5" customWidth="1"/>
-    <col min="7" max="7" width="16" customWidth="1"/>
-    <col min="8" max="8" width="14.3984375" customWidth="1"/>
-    <col min="9" max="9" width="11.3984375" customWidth="1"/>
-    <col min="10" max="10" width="10.19921875" customWidth="1"/>
-    <col min="11" max="11" width="9.59765625" customWidth="1"/>
+    <col min="6" max="6" width="16" customWidth="1"/>
+    <col min="7" max="7" width="14.3984375" customWidth="1"/>
+    <col min="8" max="8" width="11.3984375" customWidth="1"/>
+    <col min="9" max="9" width="10.19921875" customWidth="1"/>
+    <col min="10" max="10" width="9.59765625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -571,19 +598,19 @@
         <v>3</v>
       </c>
       <c r="E1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="F1" t="s">
-        <v>21</v>
+        <v>4</v>
       </c>
       <c r="G1" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="H1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="I1" t="s">
-        <v>6</v>
+        <v>16</v>
       </c>
       <c r="J1" t="s">
         <v>17</v>
@@ -591,302 +618,411 @@
       <c r="K1" t="s">
         <v>18</v>
       </c>
-      <c r="L1" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.4">
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A2">
         <v>1000</v>
       </c>
       <c r="B2" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="C2" t="s">
-        <v>7</v>
+        <v>32</v>
       </c>
       <c r="D2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E2">
-        <v>0.3</v>
-      </c>
-      <c r="F2">
         <v>0</v>
       </c>
+      <c r="F2" t="s">
+        <v>42</v>
+      </c>
       <c r="G2" t="s">
-        <v>9</v>
-      </c>
-      <c r="H2" t="s">
-        <v>25</v>
+        <v>43</v>
+      </c>
+      <c r="H2">
+        <v>15</v>
       </c>
       <c r="I2">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.4">
+        <v>1001</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A3">
         <v>1001</v>
       </c>
       <c r="B3" t="s">
-        <v>27</v>
+        <v>36</v>
       </c>
       <c r="C3" t="s">
-        <v>10</v>
+        <v>37</v>
       </c>
       <c r="D3" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E3">
-        <v>0.3</v>
-      </c>
-      <c r="F3">
-        <v>5</v>
+        <v>0</v>
+      </c>
+      <c r="F3" t="s">
+        <v>42</v>
       </c>
       <c r="G3" t="s">
-        <v>11</v>
-      </c>
-      <c r="H3" t="s">
-        <v>25</v>
+        <v>43</v>
+      </c>
+      <c r="H3">
+        <v>20</v>
       </c>
       <c r="I3">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.4">
+        <v>1002</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A4">
         <v>1002</v>
       </c>
       <c r="B4" t="s">
-        <v>28</v>
+        <v>39</v>
       </c>
       <c r="C4" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="D4" t="s">
+        <v>7</v>
+      </c>
+      <c r="E4">
+        <v>0</v>
+      </c>
+      <c r="F4" t="s">
         <v>8</v>
       </c>
-      <c r="E4">
-        <v>0.5</v>
-      </c>
-      <c r="F4">
-        <v>4</v>
-      </c>
       <c r="G4" t="s">
-        <v>13</v>
-      </c>
-      <c r="H4" t="s">
-        <v>25</v>
-      </c>
-      <c r="I4">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.4">
+        <v>22</v>
+      </c>
+      <c r="H4">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A5">
         <v>1003</v>
       </c>
       <c r="B5" t="s">
-        <v>29</v>
+        <v>38</v>
       </c>
       <c r="C5" t="s">
-        <v>14</v>
+        <v>33</v>
       </c>
       <c r="D5" t="s">
+        <v>7</v>
+      </c>
+      <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5" t="s">
         <v>8</v>
       </c>
-      <c r="E5">
-        <v>0.7</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
-      </c>
       <c r="G5" t="s">
-        <v>9</v>
-      </c>
-      <c r="H5" t="s">
-        <v>25</v>
+        <v>22</v>
+      </c>
+      <c r="H5">
+        <v>15</v>
       </c>
       <c r="I5">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.4">
+        <v>1004</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A6">
         <v>1004</v>
       </c>
       <c r="B6" t="s">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="C6" t="s">
-        <v>15</v>
+        <v>35</v>
       </c>
       <c r="D6" t="s">
+        <v>7</v>
+      </c>
+      <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6" t="s">
         <v>8</v>
       </c>
-      <c r="E6">
-        <v>0.6</v>
-      </c>
-      <c r="F6">
-        <v>0</v>
-      </c>
       <c r="G6" t="s">
-        <v>9</v>
-      </c>
-      <c r="H6" t="s">
-        <v>25</v>
+        <v>22</v>
+      </c>
+      <c r="H6">
+        <v>20</v>
       </c>
       <c r="I6">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.4">
+        <v>1005</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A7">
         <v>1005</v>
       </c>
       <c r="B7" t="s">
-        <v>31</v>
+        <v>41</v>
       </c>
       <c r="C7" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="D7" t="s">
+        <v>7</v>
+      </c>
+      <c r="E7">
+        <v>0</v>
+      </c>
+      <c r="F7" t="s">
         <v>8</v>
       </c>
-      <c r="E7">
-        <v>0.4</v>
-      </c>
-      <c r="F7">
-        <v>5</v>
-      </c>
       <c r="G7" t="s">
-        <v>11</v>
-      </c>
-      <c r="H7" t="s">
-        <v>25</v>
-      </c>
-      <c r="I7">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.4">
+        <v>22</v>
+      </c>
+      <c r="H7">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A8">
         <v>1006</v>
       </c>
       <c r="B8" t="s">
-        <v>32</v>
+        <v>23</v>
       </c>
       <c r="C8" t="s">
-        <v>22</v>
+        <v>9</v>
       </c>
       <c r="D8" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E8">
-        <v>0.3</v>
-      </c>
-      <c r="F8">
-        <v>0</v>
+        <v>5</v>
+      </c>
+      <c r="F8" t="s">
+        <v>10</v>
       </c>
       <c r="G8" t="s">
-        <v>9</v>
-      </c>
-      <c r="H8" t="s">
-        <v>25</v>
-      </c>
-      <c r="I8">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.4">
+        <v>22</v>
+      </c>
+      <c r="H8">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A9">
         <v>1007</v>
       </c>
       <c r="B9" t="s">
-        <v>33</v>
+        <v>24</v>
       </c>
       <c r="C9" t="s">
-        <v>34</v>
+        <v>11</v>
       </c>
       <c r="D9" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E9">
-        <v>0.3</v>
-      </c>
-      <c r="F9">
-        <v>5</v>
+        <v>4</v>
+      </c>
+      <c r="F9" t="s">
+        <v>12</v>
       </c>
       <c r="G9" t="s">
-        <v>11</v>
-      </c>
-      <c r="H9" t="s">
-        <v>25</v>
-      </c>
-      <c r="I9">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.4">
+        <v>22</v>
+      </c>
+      <c r="H9">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A10">
         <v>1008</v>
       </c>
       <c r="B10" t="s">
-        <v>35</v>
+        <v>25</v>
       </c>
       <c r="C10" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D10" t="s">
+        <v>7</v>
+      </c>
+      <c r="E10">
+        <v>0</v>
+      </c>
+      <c r="F10" t="s">
         <v>8</v>
       </c>
-      <c r="E10">
-        <v>0.5</v>
-      </c>
-      <c r="F10">
-        <v>4</v>
-      </c>
       <c r="G10" t="s">
-        <v>13</v>
-      </c>
-      <c r="H10" t="s">
-        <v>25</v>
-      </c>
-      <c r="I10">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.4">
+        <v>22</v>
+      </c>
+      <c r="H10">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A11">
         <v>1009</v>
       </c>
       <c r="B11" t="s">
-        <v>36</v>
+        <v>26</v>
       </c>
       <c r="C11" t="s">
+        <v>14</v>
+      </c>
+      <c r="D11" t="s">
+        <v>7</v>
+      </c>
+      <c r="E11">
+        <v>0</v>
+      </c>
+      <c r="F11" t="s">
+        <v>8</v>
+      </c>
+      <c r="G11" t="s">
+        <v>22</v>
+      </c>
+      <c r="H11">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A12">
+        <v>1010</v>
+      </c>
+      <c r="B12" t="s">
+        <v>27</v>
+      </c>
+      <c r="C12" t="s">
+        <v>15</v>
+      </c>
+      <c r="D12" t="s">
+        <v>7</v>
+      </c>
+      <c r="E12">
+        <v>5</v>
+      </c>
+      <c r="F12" t="s">
+        <v>10</v>
+      </c>
+      <c r="G12" t="s">
+        <v>22</v>
+      </c>
+      <c r="H12">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A13">
+        <v>1011</v>
+      </c>
+      <c r="B13" t="s">
         <v>23</v>
       </c>
-      <c r="D11" t="s">
-        <v>8</v>
-      </c>
-      <c r="E11">
-        <v>0.5</v>
-      </c>
-      <c r="F11">
+      <c r="C13" t="s">
+        <v>9</v>
+      </c>
+      <c r="D13" t="s">
+        <v>7</v>
+      </c>
+      <c r="E13">
+        <v>5</v>
+      </c>
+      <c r="F13" t="s">
+        <v>10</v>
+      </c>
+      <c r="G13" t="s">
+        <v>22</v>
+      </c>
+      <c r="H13">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A14">
+        <v>1012</v>
+      </c>
+      <c r="B14" t="s">
+        <v>34</v>
+      </c>
+      <c r="C14" t="s">
+        <v>28</v>
+      </c>
+      <c r="D14" t="s">
+        <v>7</v>
+      </c>
+      <c r="E14">
+        <v>5</v>
+      </c>
+      <c r="F14" t="s">
+        <v>10</v>
+      </c>
+      <c r="G14" t="s">
+        <v>22</v>
+      </c>
+      <c r="H14">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A15">
+        <v>1013</v>
+      </c>
+      <c r="B15" t="s">
+        <v>29</v>
+      </c>
+      <c r="C15" t="s">
+        <v>11</v>
+      </c>
+      <c r="D15" t="s">
+        <v>7</v>
+      </c>
+      <c r="E15">
+        <v>4</v>
+      </c>
+      <c r="F15" t="s">
+        <v>12</v>
+      </c>
+      <c r="G15" t="s">
+        <v>22</v>
+      </c>
+      <c r="H15">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A16">
+        <v>1014</v>
+      </c>
+      <c r="B16" t="s">
+        <v>30</v>
+      </c>
+      <c r="C16" t="s">
+        <v>20</v>
+      </c>
+      <c r="D16" t="s">
+        <v>7</v>
+      </c>
+      <c r="E16">
         <v>0</v>
       </c>
-      <c r="G11" t="s">
-        <v>24</v>
-      </c>
-      <c r="H11" t="s">
-        <v>25</v>
-      </c>
-      <c r="I11">
+      <c r="F16" t="s">
+        <v>21</v>
+      </c>
+      <c r="G16" t="s">
+        <v>22</v>
+      </c>
+      <c r="H16">
         <v>20</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:K11"/>
+  <autoFilter ref="A1:J12"/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/DesignDocs/VariableData/TubeStyle.xlsx
+++ b/DesignDocs/VariableData/TubeStyle.xlsx
@@ -15,7 +15,7 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$J$13</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$K$13</definedName>
   </definedNames>
   <calcPr calcId="152511"/>
   <extLst>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="45">
   <si>
     <t>cid</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -202,6 +202,10 @@
   </si>
   <si>
     <t>Mid</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>coolTime</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -566,10 +570,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K16"/>
+  <dimension ref="A1:L16"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="K7" sqref="K7"/>
+      <selection activeCell="J17" sqref="J17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
@@ -580,11 +584,11 @@
     <col min="6" max="6" width="16" customWidth="1"/>
     <col min="7" max="7" width="14.3984375" customWidth="1"/>
     <col min="8" max="8" width="11.3984375" customWidth="1"/>
-    <col min="9" max="9" width="10.19921875" customWidth="1"/>
-    <col min="10" max="10" width="9.59765625" customWidth="1"/>
+    <col min="9" max="10" width="10.19921875" customWidth="1"/>
+    <col min="11" max="11" width="9.59765625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -613,13 +617,16 @@
         <v>16</v>
       </c>
       <c r="J1" t="s">
+        <v>44</v>
+      </c>
+      <c r="K1" t="s">
         <v>17</v>
       </c>
-      <c r="K1" t="s">
+      <c r="L1" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A2">
         <v>1000</v>
       </c>
@@ -647,8 +654,11 @@
       <c r="I2">
         <v>1001</v>
       </c>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="J2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A3">
         <v>1001</v>
       </c>
@@ -676,8 +686,11 @@
       <c r="I3">
         <v>1002</v>
       </c>
-    </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="J3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A4">
         <v>1002</v>
       </c>
@@ -702,8 +715,11 @@
       <c r="H4">
         <v>30</v>
       </c>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="J4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A5">
         <v>1003</v>
       </c>
@@ -731,8 +747,11 @@
       <c r="I5">
         <v>1004</v>
       </c>
-    </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="J5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A6">
         <v>1004</v>
       </c>
@@ -760,8 +779,11 @@
       <c r="I6">
         <v>1005</v>
       </c>
-    </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="J6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A7">
         <v>1005</v>
       </c>
@@ -786,8 +808,11 @@
       <c r="H7">
         <v>30</v>
       </c>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="J7">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A8">
         <v>1006</v>
       </c>
@@ -812,8 +837,11 @@
       <c r="H8">
         <v>50</v>
       </c>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="J8">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A9">
         <v>1007</v>
       </c>
@@ -838,8 +866,11 @@
       <c r="H9">
         <v>20</v>
       </c>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="J9">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A10">
         <v>1008</v>
       </c>
@@ -864,8 +895,11 @@
       <c r="H10">
         <v>40</v>
       </c>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="J10">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A11">
         <v>1009</v>
       </c>
@@ -890,8 +924,11 @@
       <c r="H11">
         <v>15</v>
       </c>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="J11">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A12">
         <v>1010</v>
       </c>
@@ -916,8 +953,11 @@
       <c r="H12">
         <v>20</v>
       </c>
-    </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="J12">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A13">
         <v>1011</v>
       </c>
@@ -942,8 +982,11 @@
       <c r="H13">
         <v>10</v>
       </c>
-    </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="J13">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A14">
         <v>1012</v>
       </c>
@@ -968,8 +1011,11 @@
       <c r="H14">
         <v>10</v>
       </c>
-    </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="J14">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A15">
         <v>1013</v>
       </c>
@@ -994,8 +1040,11 @@
       <c r="H15">
         <v>20</v>
       </c>
-    </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="J15">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A16">
         <v>1014</v>
       </c>
@@ -1020,9 +1069,12 @@
       <c r="H16">
         <v>20</v>
       </c>
+      <c r="J16">
+        <v>3</v>
+      </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:J12"/>
+  <autoFilter ref="A1:K12"/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/DesignDocs/VariableData/TubeStyle.xlsx
+++ b/DesignDocs/VariableData/TubeStyle.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20325"/>
+  <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\2D-Side-View-Roguelike\DesignDocs\VariableData\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8EB16B1E-A9BC-434C-9952-42686AB8A3F5}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11196"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11190" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -27,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="52">
   <si>
     <t>cid</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -207,12 +208,37 @@
   <si>
     <t>coolTime</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>기본 공격</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>style</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>range</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Mid</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Normal Shot1</t>
+  </si>
+  <si>
+    <t>Normal Shot2</t>
+  </si>
+  <si>
+    <t>Normal Shot3</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -230,12 +256,18 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF92D050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -252,8 +284,11 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -569,26 +604,26 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L16"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:L19"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="J17" sqref="J17"/>
+    <sheetView tabSelected="1" topLeftCell="C1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="J11" sqref="J11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="23.69921875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="19.59765625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="9.69921875" customWidth="1"/>
+    <col min="2" max="2" width="23.75" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="19.625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.75" customWidth="1"/>
     <col min="6" max="6" width="16" customWidth="1"/>
-    <col min="7" max="7" width="14.3984375" customWidth="1"/>
-    <col min="8" max="8" width="11.3984375" customWidth="1"/>
-    <col min="9" max="10" width="10.19921875" customWidth="1"/>
-    <col min="11" max="11" width="9.59765625" customWidth="1"/>
+    <col min="7" max="7" width="14.375" customWidth="1"/>
+    <col min="8" max="8" width="11.375" customWidth="1"/>
+    <col min="9" max="10" width="10.25" customWidth="1"/>
+    <col min="11" max="11" width="9.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -626,7 +661,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>1000</v>
       </c>
@@ -658,7 +693,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>1001</v>
       </c>
@@ -690,7 +725,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>1002</v>
       </c>
@@ -719,7 +754,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>1003</v>
       </c>
@@ -751,7 +786,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>1004</v>
       </c>
@@ -783,7 +818,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>1005</v>
       </c>
@@ -812,7 +847,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>1006</v>
       </c>
@@ -841,7 +876,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>1007</v>
       </c>
@@ -870,7 +905,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>1008</v>
       </c>
@@ -899,7 +934,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>1009</v>
       </c>
@@ -928,7 +963,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>1010</v>
       </c>
@@ -957,7 +992,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>1011</v>
       </c>
@@ -986,7 +1021,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>1012</v>
       </c>
@@ -1015,7 +1050,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>1013</v>
       </c>
@@ -1044,7 +1079,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>1014</v>
       </c>
@@ -1073,8 +1108,102 @@
         <v>3</v>
       </c>
     </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A17" s="1">
+        <v>1015</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="D17" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="E17" s="1">
+        <v>5</v>
+      </c>
+      <c r="F17" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="G17" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="H17" s="1">
+        <v>3</v>
+      </c>
+      <c r="I17" s="1">
+        <v>1016</v>
+      </c>
+      <c r="J17" s="1">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A18" s="1">
+        <v>1016</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="D18" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="E18" s="1">
+        <v>5</v>
+      </c>
+      <c r="F18" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="G18" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="H18" s="1">
+        <v>3</v>
+      </c>
+      <c r="I18" s="1">
+        <v>1017</v>
+      </c>
+      <c r="J18" s="1">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A19" s="1">
+        <v>1017</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="D19" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="E19" s="1">
+        <v>5</v>
+      </c>
+      <c r="F19" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="G19" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="H19" s="1">
+        <v>3</v>
+      </c>
+      <c r="I19" s="1"/>
+      <c r="J19" s="1">
+        <v>0.1</v>
+      </c>
+    </row>
   </sheetData>
-  <autoFilter ref="A1:K12"/>
+  <autoFilter ref="A1:K12" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/DesignDocs/VariableData/TubeStyle.xlsx
+++ b/DesignDocs/VariableData/TubeStyle.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20325"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\2D-Side-View-Roguelike\DesignDocs\VariableData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8EB16B1E-A9BC-434C-9952-42686AB8A3F5}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11190" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11196"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -238,7 +237,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -604,26 +603,26 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L19"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="J11" sqref="J11"/>
+    <sheetView tabSelected="1" topLeftCell="G1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="L10" sqref="L10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="2" max="2" width="23.75" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="19.625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="9.75" customWidth="1"/>
+    <col min="2" max="2" width="23.69921875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="19.59765625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.69921875" customWidth="1"/>
     <col min="6" max="6" width="16" customWidth="1"/>
-    <col min="7" max="7" width="14.375" customWidth="1"/>
-    <col min="8" max="8" width="11.375" customWidth="1"/>
-    <col min="9" max="10" width="10.25" customWidth="1"/>
-    <col min="11" max="11" width="9.625" customWidth="1"/>
+    <col min="7" max="7" width="14.3984375" customWidth="1"/>
+    <col min="8" max="8" width="11.3984375" customWidth="1"/>
+    <col min="9" max="10" width="10.19921875" customWidth="1"/>
+    <col min="11" max="11" width="9.59765625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -661,7 +660,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A2">
         <v>1000</v>
       </c>
@@ -693,7 +692,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A3">
         <v>1001</v>
       </c>
@@ -725,7 +724,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A4">
         <v>1002</v>
       </c>
@@ -754,7 +753,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A5">
         <v>1003</v>
       </c>
@@ -786,7 +785,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A6">
         <v>1004</v>
       </c>
@@ -818,7 +817,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A7">
         <v>1005</v>
       </c>
@@ -847,7 +846,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A8">
         <v>1006</v>
       </c>
@@ -876,7 +875,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A9">
         <v>1007</v>
       </c>
@@ -905,7 +904,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A10">
         <v>1008</v>
       </c>
@@ -934,7 +933,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A11">
         <v>1009</v>
       </c>
@@ -963,7 +962,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A12">
         <v>1010</v>
       </c>
@@ -992,7 +991,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A13">
         <v>1011</v>
       </c>
@@ -1021,7 +1020,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A14">
         <v>1012</v>
       </c>
@@ -1050,7 +1049,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A15">
         <v>1013</v>
       </c>
@@ -1079,7 +1078,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A16">
         <v>1014</v>
       </c>
@@ -1108,7 +1107,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A17" s="1">
         <v>1015</v>
       </c>
@@ -1140,7 +1139,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A18" s="1">
         <v>1016</v>
       </c>
@@ -1172,7 +1171,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A19" s="1">
         <v>1017</v>
       </c>
@@ -1203,7 +1202,7 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:K12" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
+  <autoFilter ref="A1:K12"/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/DesignDocs/VariableData/TubeStyle.xlsx
+++ b/DesignDocs/VariableData/TubeStyle.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20325"/>
+  <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\2D-Side-View-Roguelike\DesignDocs\VariableData\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{579C1A7B-F6D2-4BE0-AC12-4AF7FB9C2021}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11196"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11190" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -237,7 +238,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -603,26 +604,26 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:L19"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="L10" sqref="L10"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="J17" sqref="J17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="23.69921875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="19.59765625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="9.69921875" customWidth="1"/>
+    <col min="2" max="2" width="23.75" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="19.625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.75" customWidth="1"/>
     <col min="6" max="6" width="16" customWidth="1"/>
-    <col min="7" max="7" width="14.3984375" customWidth="1"/>
-    <col min="8" max="8" width="11.3984375" customWidth="1"/>
-    <col min="9" max="10" width="10.19921875" customWidth="1"/>
-    <col min="11" max="11" width="9.59765625" customWidth="1"/>
+    <col min="7" max="7" width="14.375" customWidth="1"/>
+    <col min="8" max="8" width="11.375" customWidth="1"/>
+    <col min="9" max="10" width="10.25" customWidth="1"/>
+    <col min="11" max="11" width="9.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -660,7 +661,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>1000</v>
       </c>
@@ -683,7 +684,7 @@
         <v>43</v>
       </c>
       <c r="H2">
-        <v>15</v>
+        <v>3</v>
       </c>
       <c r="I2">
         <v>1001</v>
@@ -692,7 +693,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>1001</v>
       </c>
@@ -715,7 +716,7 @@
         <v>43</v>
       </c>
       <c r="H3">
-        <v>20</v>
+        <v>4</v>
       </c>
       <c r="I3">
         <v>1002</v>
@@ -724,7 +725,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>1002</v>
       </c>
@@ -747,13 +748,13 @@
         <v>22</v>
       </c>
       <c r="H4">
-        <v>30</v>
+        <v>5</v>
       </c>
       <c r="J4">
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>1003</v>
       </c>
@@ -776,7 +777,7 @@
         <v>22</v>
       </c>
       <c r="H5">
-        <v>15</v>
+        <v>3</v>
       </c>
       <c r="I5">
         <v>1004</v>
@@ -785,7 +786,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>1004</v>
       </c>
@@ -808,7 +809,7 @@
         <v>22</v>
       </c>
       <c r="H6">
-        <v>20</v>
+        <v>4</v>
       </c>
       <c r="I6">
         <v>1005</v>
@@ -817,7 +818,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>1005</v>
       </c>
@@ -840,13 +841,13 @@
         <v>22</v>
       </c>
       <c r="H7">
-        <v>30</v>
+        <v>5</v>
       </c>
       <c r="J7">
         <v>3</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>1006</v>
       </c>
@@ -869,13 +870,13 @@
         <v>22</v>
       </c>
       <c r="H8">
-        <v>50</v>
+        <v>10</v>
       </c>
       <c r="J8">
         <v>3</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>1007</v>
       </c>
@@ -898,13 +899,13 @@
         <v>22</v>
       </c>
       <c r="H9">
-        <v>20</v>
+        <v>4</v>
       </c>
       <c r="J9">
         <v>3</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>1008</v>
       </c>
@@ -927,13 +928,13 @@
         <v>22</v>
       </c>
       <c r="H10">
-        <v>40</v>
+        <v>8</v>
       </c>
       <c r="J10">
         <v>3</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>1009</v>
       </c>
@@ -956,13 +957,13 @@
         <v>22</v>
       </c>
       <c r="H11">
-        <v>15</v>
+        <v>3</v>
       </c>
       <c r="J11">
         <v>3</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>1010</v>
       </c>
@@ -985,13 +986,13 @@
         <v>22</v>
       </c>
       <c r="H12">
-        <v>20</v>
+        <v>4</v>
       </c>
       <c r="J12">
         <v>3</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>1011</v>
       </c>
@@ -1014,13 +1015,13 @@
         <v>22</v>
       </c>
       <c r="H13">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="J13">
         <v>3</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>1012</v>
       </c>
@@ -1043,13 +1044,13 @@
         <v>22</v>
       </c>
       <c r="H14">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="J14">
         <v>3</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>1013</v>
       </c>
@@ -1072,13 +1073,13 @@
         <v>22</v>
       </c>
       <c r="H15">
-        <v>20</v>
+        <v>4</v>
       </c>
       <c r="J15">
         <v>3</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>1014</v>
       </c>
@@ -1101,13 +1102,13 @@
         <v>22</v>
       </c>
       <c r="H16">
-        <v>20</v>
+        <v>4</v>
       </c>
       <c r="J16">
         <v>3</v>
       </c>
     </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="17" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A17" s="1">
         <v>1015</v>
       </c>
@@ -1136,10 +1137,10 @@
         <v>1016</v>
       </c>
       <c r="J17" s="1">
-        <v>0.1</v>
-      </c>
-    </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.4">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A18" s="1">
         <v>1016</v>
       </c>
@@ -1168,10 +1169,10 @@
         <v>1017</v>
       </c>
       <c r="J18" s="1">
-        <v>0.1</v>
-      </c>
-    </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.4">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A19" s="1">
         <v>1017</v>
       </c>
@@ -1198,11 +1199,11 @@
       </c>
       <c r="I19" s="1"/>
       <c r="J19" s="1">
-        <v>0.1</v>
+        <v>0.5</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:K12"/>
+  <autoFilter ref="A1:K12" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/DesignDocs/VariableData/TubeStyle.xlsx
+++ b/DesignDocs/VariableData/TubeStyle.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\2D-Side-View-Roguelike\DesignDocs\VariableData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{579C1A7B-F6D2-4BE0-AC12-4AF7FB9C2021}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4520CEE6-DBE9-4B31-826B-FBAC5FC072FD}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11190" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -222,10 +222,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Mid</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Normal Shot1</t>
   </si>
   <si>
@@ -233,6 +229,10 @@
   </si>
   <si>
     <t>Normal Shot3</t>
+  </si>
+  <si>
+    <t>Upper-Mid</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -256,7 +256,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -266,6 +266,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FF92D050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -284,11 +290,14 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -608,7 +617,7 @@
   <dimension ref="A1:L19"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="J17" sqref="J17"/>
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -866,8 +875,8 @@
       <c r="F8" t="s">
         <v>10</v>
       </c>
-      <c r="G8" t="s">
-        <v>22</v>
+      <c r="G8" s="2" t="s">
+        <v>51</v>
       </c>
       <c r="H8">
         <v>10</v>
@@ -1011,8 +1020,8 @@
       <c r="F13" t="s">
         <v>10</v>
       </c>
-      <c r="G13" t="s">
-        <v>22</v>
+      <c r="G13" s="2" t="s">
+        <v>51</v>
       </c>
       <c r="H13">
         <v>2</v>
@@ -1040,8 +1049,8 @@
       <c r="F14" t="s">
         <v>10</v>
       </c>
-      <c r="G14" t="s">
-        <v>22</v>
+      <c r="G14" s="2" t="s">
+        <v>51</v>
       </c>
       <c r="H14">
         <v>2</v>
@@ -1113,7 +1122,7 @@
         <v>1015</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C17" s="1" t="s">
         <v>45</v>
@@ -1127,8 +1136,8 @@
       <c r="F17" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="G17" s="1" t="s">
-        <v>48</v>
+      <c r="G17" s="2" t="s">
+        <v>51</v>
       </c>
       <c r="H17" s="1">
         <v>3</v>
@@ -1145,7 +1154,7 @@
         <v>1016</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C18" s="1" t="s">
         <v>45</v>
@@ -1159,8 +1168,8 @@
       <c r="F18" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="G18" s="1" t="s">
-        <v>48</v>
+      <c r="G18" s="2" t="s">
+        <v>51</v>
       </c>
       <c r="H18" s="1">
         <v>3</v>
@@ -1177,7 +1186,7 @@
         <v>1017</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C19" s="1" t="s">
         <v>45</v>
@@ -1191,8 +1200,8 @@
       <c r="F19" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="G19" s="1" t="s">
-        <v>48</v>
+      <c r="G19" s="2" t="s">
+        <v>51</v>
       </c>
       <c r="H19" s="1">
         <v>3</v>
